--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_21_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_21_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2098444.454616919</v>
+        <v>2094142.292720453</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283194</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9776092.588241711</v>
+        <v>9776092.588241709</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -667,13 +667,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="F2" t="n">
         <v>187.52558716632</v>
       </c>
       <c r="G2" t="n">
-        <v>153.8072380324134</v>
+        <v>13.09783323005805</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>11.36529914368131</v>
+        <v>11.36529914368134</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -715,10 +715,10 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>140.7094048023552</v>
       </c>
     </row>
     <row r="3">
@@ -737,10 +737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -749,7 +749,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>26.91122581714238</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -794,10 +794,10 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>20.10332478271073</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -806,7 +806,7 @@
         <v>187.52558716632</v>
       </c>
       <c r="Y3" t="n">
-        <v>187.52558716632</v>
+        <v>174.0708030534089</v>
       </c>
     </row>
     <row r="4">
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>23.43375830553082</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,28 +861,28 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>3.343082173845801</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>22.79989285160934</v>
       </c>
       <c r="S4" t="n">
-        <v>37.40935536738333</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
         <v>187.52558716632</v>
-      </c>
-      <c r="U4" t="n">
-        <v>187.52558716632</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -901,22 +901,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>349.2299344537561</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>349.2299344537555</v>
       </c>
       <c r="F5" t="n">
-        <v>349.2299344537561</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>349.2299344537561</v>
+        <v>12.538236240781</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>311.1628534397887</v>
       </c>
       <c r="I5" t="n">
-        <v>103.8974541908713</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -958,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.2299344537555</v>
       </c>
       <c r="X5" t="n">
-        <v>203.7042720759968</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>326.2545252983421</v>
       </c>
     </row>
     <row r="6">
@@ -974,28 +974,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>0.8594269019721322</v>
       </c>
       <c r="I6" t="n">
-        <v>38.47015094419592</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,13 +1022,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>8.321493021611971</v>
+        <v>8.321493021612028</v>
       </c>
       <c r="S6" t="n">
-        <v>144.2088206736374</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>194.2027622142185</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1043,7 +1043,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>113.2865636107832</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1053,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>173.8472846106276</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1071,13 +1071,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>151.2019108882319</v>
+        <v>90.83824804142114</v>
       </c>
       <c r="I7" t="n">
-        <v>118.1584857285476</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>5.686931024057159</v>
+        <v>5.686931024057216</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>121.5357799573319</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2513897146553</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1119,10 +1119,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>82.25381197907775</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1186,16 +1186,16 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>132.4350189827609</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1299,16 +1299,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -1338,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>85.4556421029896</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>93.05908041174695</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1381,13 +1381,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695535</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174123</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1530,25 +1530,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>121.8000472740351</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.2658363185698</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>64.91921363453162</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1618,13 +1618,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444117</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695535</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784705</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1767,22 +1767,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>41.74133133758716</v>
+        <v>30.9719158638759</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1852,13 +1852,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722612</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1900,7 +1900,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2007,10 +2007,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>112.5284434523311</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2140,7 +2140,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701358</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2241,25 +2241,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>176.1811323375794</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2475,16 +2475,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>15.9345014072213</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2535,16 +2535,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>139.5271979141361</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569547</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881278</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2715,16 +2715,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812011</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2763,7 +2763,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>140.7215037338438</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2772,10 +2772,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2848,10 +2848,10 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2955,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>61.66004604094908</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3012,10 +3012,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>81.88270281562022</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3043,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3186,16 +3186,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>107.7122866515512</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3204,10 +3204,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3246,7 +3246,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>186.5877792298974</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3322,7 +3322,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3429,13 +3429,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>105.6507867899569</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3562,7 +3562,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>80.56412890121557</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3672,16 +3672,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,19 +3711,19 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>245.4109786013537</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3796,7 +3796,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428269</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -3991,7 +3991,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187857</v>
       </c>
       <c r="H44" t="n">
         <v>283.1540821444137</v>
@@ -4140,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>124.4121185570315</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4194,7 +4194,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>359.7826784871777</v>
+        <v>407.0717515820915</v>
       </c>
       <c r="C2" t="n">
-        <v>359.7826784871777</v>
+        <v>407.0717515820915</v>
       </c>
       <c r="D2" t="n">
-        <v>359.7826784871777</v>
+        <v>407.0717515820915</v>
       </c>
       <c r="E2" t="n">
-        <v>359.7826784871777</v>
+        <v>217.6519665656066</v>
       </c>
       <c r="F2" t="n">
-        <v>170.3628934706928</v>
+        <v>28.23218154912181</v>
       </c>
       <c r="G2" t="n">
         <v>15.0020469733056</v>
@@ -4330,52 +4330,52 @@
         <v>15.0020469733056</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678489</v>
+        <v>21.03371160678535</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058939</v>
+        <v>80.81213159058962</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079184</v>
+        <v>191.8743094079189</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644755</v>
+        <v>347.1218190644756</v>
       </c>
       <c r="N2" t="n">
         <v>509.495204112383</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985586</v>
+        <v>649.4845259985584</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020269</v>
+        <v>734.4611726020266</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.10234866528</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="R2" t="n">
-        <v>738.6222485201474</v>
+        <v>738.6222485201471</v>
       </c>
       <c r="S2" t="n">
-        <v>738.6222485201474</v>
+        <v>738.6222485201471</v>
       </c>
       <c r="T2" t="n">
-        <v>738.6222485201474</v>
+        <v>738.6222485201471</v>
       </c>
       <c r="U2" t="n">
-        <v>549.2024635036626</v>
+        <v>738.6222485201471</v>
       </c>
       <c r="V2" t="n">
-        <v>359.7826784871777</v>
+        <v>738.6222485201471</v>
       </c>
       <c r="W2" t="n">
-        <v>359.7826784871777</v>
+        <v>738.6222485201471</v>
       </c>
       <c r="X2" t="n">
-        <v>359.7826784871777</v>
+        <v>738.6222485201471</v>
       </c>
       <c r="Y2" t="n">
-        <v>359.7826784871777</v>
+        <v>596.4915365985762</v>
       </c>
     </row>
     <row r="3">
@@ -4385,16 +4385,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>161.5366049464206</v>
+        <v>189.4550762544326</v>
       </c>
       <c r="C3" t="n">
-        <v>161.5366049464206</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="D3" t="n">
-        <v>161.5366049464206</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="E3" t="n">
-        <v>161.5366049464206</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F3" t="n">
         <v>15.0020469733056</v>
@@ -4412,49 +4412,49 @@
         <v>15.0020469733056</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024213</v>
+        <v>67.13418877024219</v>
       </c>
       <c r="L3" t="n">
-        <v>183.554828077265</v>
+        <v>183.5548280772651</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140245</v>
+        <v>338.7690911140246</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546602</v>
+        <v>512.5000587546604</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476352</v>
+        <v>649.2101578476349</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017066</v>
+        <v>739.5989987017064</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.10234866528</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="R3" t="n">
-        <v>750.10234866528</v>
+        <v>722.9192922843279</v>
       </c>
       <c r="S3" t="n">
-        <v>750.10234866528</v>
+        <v>722.9192922843279</v>
       </c>
       <c r="T3" t="n">
-        <v>750.10234866528</v>
+        <v>722.9192922843279</v>
       </c>
       <c r="U3" t="n">
-        <v>729.7959599958753</v>
+        <v>722.9192922843279</v>
       </c>
       <c r="V3" t="n">
-        <v>540.3761749793904</v>
+        <v>722.9192922843279</v>
       </c>
       <c r="W3" t="n">
-        <v>540.3761749793904</v>
+        <v>722.9192922843279</v>
       </c>
       <c r="X3" t="n">
-        <v>350.9563899629055</v>
+        <v>533.499507267843</v>
       </c>
       <c r="Y3" t="n">
-        <v>161.5366049464206</v>
+        <v>357.6704132745007</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>333.4755509884887</v>
+        <v>352.6270533382975</v>
       </c>
       <c r="C4" t="n">
-        <v>333.4755509884887</v>
+        <v>183.6908704103906</v>
       </c>
       <c r="D4" t="n">
-        <v>333.4755509884887</v>
+        <v>183.6908704103906</v>
       </c>
       <c r="E4" t="n">
-        <v>185.5624574060956</v>
+        <v>183.6908704103906</v>
       </c>
       <c r="F4" t="n">
-        <v>38.67250990818521</v>
+        <v>183.6908704103906</v>
       </c>
       <c r="G4" t="n">
-        <v>38.67250990818521</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H4" t="n">
-        <v>38.67250990818521</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I4" t="n">
-        <v>38.67250990818521</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J4" t="n">
         <v>15.0020469733056</v>
       </c>
       <c r="K4" t="n">
-        <v>15.0020469733056</v>
+        <v>43.17590452428104</v>
       </c>
       <c r="L4" t="n">
-        <v>187.8896250884407</v>
+        <v>216.0634826394161</v>
       </c>
       <c r="M4" t="n">
-        <v>373.5399563830975</v>
+        <v>401.7138139340728</v>
       </c>
       <c r="N4" t="n">
-        <v>559.1902876777543</v>
+        <v>587.3641452287296</v>
       </c>
       <c r="O4" t="n">
-        <v>634.3723839608023</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="P4" t="n">
-        <v>750.10234866528</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="Q4" t="n">
-        <v>750.10234866528</v>
+        <v>746.7254979846275</v>
       </c>
       <c r="R4" t="n">
-        <v>750.10234866528</v>
+        <v>723.6953031850221</v>
       </c>
       <c r="S4" t="n">
-        <v>712.3151210214585</v>
+        <v>723.6953031850221</v>
       </c>
       <c r="T4" t="n">
-        <v>522.8953360049736</v>
+        <v>723.6953031850221</v>
       </c>
       <c r="U4" t="n">
-        <v>333.4755509884887</v>
+        <v>723.6953031850221</v>
       </c>
       <c r="V4" t="n">
-        <v>333.4755509884887</v>
+        <v>723.6953031850221</v>
       </c>
       <c r="W4" t="n">
-        <v>333.4755509884887</v>
+        <v>723.6953031850221</v>
       </c>
       <c r="X4" t="n">
-        <v>333.4755509884887</v>
+        <v>534.2755181685372</v>
       </c>
       <c r="Y4" t="n">
-        <v>333.4755509884887</v>
+        <v>534.2755181685372</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1191.157846829169</v>
+        <v>714.6122027118931</v>
       </c>
       <c r="C5" t="n">
-        <v>1191.157846829169</v>
+        <v>714.6122027118931</v>
       </c>
       <c r="D5" t="n">
-        <v>838.4003372799202</v>
+        <v>714.6122027118931</v>
       </c>
       <c r="E5" t="n">
-        <v>838.4003372799202</v>
+        <v>361.854693162645</v>
       </c>
       <c r="F5" t="n">
-        <v>485.6428277306716</v>
+        <v>354.9091924134416</v>
       </c>
       <c r="G5" t="n">
-        <v>132.885318181423</v>
+        <v>342.2443073217436</v>
       </c>
       <c r="H5" t="n">
-        <v>132.885318181423</v>
+        <v>27.93839475630044</v>
       </c>
       <c r="I5" t="n">
-        <v>27.93839475630049</v>
+        <v>27.93839475630044</v>
       </c>
       <c r="J5" t="n">
-        <v>80.99020340874631</v>
+        <v>80.9902034087462</v>
       </c>
       <c r="K5" t="n">
-        <v>211.2396305620537</v>
+        <v>211.2396305620535</v>
       </c>
       <c r="L5" t="n">
-        <v>409.7273242458673</v>
+        <v>409.7273242458669</v>
       </c>
       <c r="M5" t="n">
-        <v>662.2525653973842</v>
+        <v>662.2525653973833</v>
       </c>
       <c r="N5" t="n">
-        <v>923.477737336577</v>
+        <v>923.4777373365752</v>
       </c>
       <c r="O5" t="n">
-        <v>1156.809998477536</v>
+        <v>1156.809998477533</v>
       </c>
       <c r="P5" t="n">
-        <v>1321.452684169737</v>
+        <v>1321.452684169735</v>
       </c>
       <c r="Q5" t="n">
-        <v>1396.919737815024</v>
+        <v>1396.919737815022</v>
       </c>
       <c r="R5" t="n">
-        <v>1396.919737815024</v>
+        <v>1396.919737815022</v>
       </c>
       <c r="S5" t="n">
-        <v>1396.919737815024</v>
+        <v>1396.919737815022</v>
       </c>
       <c r="T5" t="n">
-        <v>1396.919737815024</v>
+        <v>1396.919737815022</v>
       </c>
       <c r="U5" t="n">
-        <v>1396.919737815024</v>
+        <v>1396.919737815022</v>
       </c>
       <c r="V5" t="n">
-        <v>1396.919737815024</v>
+        <v>1396.919737815022</v>
       </c>
       <c r="W5" t="n">
-        <v>1396.919737815024</v>
+        <v>1044.162228265774</v>
       </c>
       <c r="X5" t="n">
-        <v>1191.157846829169</v>
+        <v>1044.162228265774</v>
       </c>
       <c r="Y5" t="n">
-        <v>1191.157846829169</v>
+        <v>714.6122027118931</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>66.79713308377112</v>
+        <v>483.5129253779123</v>
       </c>
       <c r="C6" t="n">
-        <v>66.79713308377112</v>
+        <v>483.5129253779123</v>
       </c>
       <c r="D6" t="n">
-        <v>66.79713308377112</v>
+        <v>334.578515716661</v>
       </c>
       <c r="E6" t="n">
-        <v>66.79713308377112</v>
+        <v>175.3410607112055</v>
       </c>
       <c r="F6" t="n">
-        <v>66.79713308377112</v>
+        <v>28.80650273809047</v>
       </c>
       <c r="G6" t="n">
-        <v>66.79713308377112</v>
+        <v>28.80650273809047</v>
       </c>
       <c r="H6" t="n">
-        <v>66.79713308377112</v>
+        <v>27.93839475630044</v>
       </c>
       <c r="I6" t="n">
-        <v>27.93839475630049</v>
+        <v>27.93839475630044</v>
       </c>
       <c r="J6" t="n">
-        <v>40.71784159143088</v>
+        <v>165.5479665784355</v>
       </c>
       <c r="K6" t="n">
-        <v>140.7147764379373</v>
+        <v>265.5449014249418</v>
       </c>
       <c r="L6" t="n">
-        <v>321.4955368824499</v>
+        <v>446.3256618694541</v>
       </c>
       <c r="M6" t="n">
-        <v>551.8150256158618</v>
+        <v>676.6451506028659</v>
       </c>
       <c r="N6" t="n">
-        <v>802.6390307947665</v>
+        <v>927.4691557817703</v>
       </c>
       <c r="O6" t="n">
-        <v>1009.87419788785</v>
+        <v>1134.704322874854</v>
       </c>
       <c r="P6" t="n">
-        <v>1156.865623411835</v>
+        <v>1281.695748398838</v>
       </c>
       <c r="Q6" t="n">
-        <v>1396.919737815024</v>
+        <v>1396.919737815022</v>
       </c>
       <c r="R6" t="n">
-        <v>1388.514189308346</v>
+        <v>1388.514189308343</v>
       </c>
       <c r="S6" t="n">
-        <v>1242.848713880429</v>
+        <v>1388.514189308343</v>
       </c>
       <c r="T6" t="n">
-        <v>1046.684307603441</v>
+        <v>1388.514189308343</v>
       </c>
       <c r="U6" t="n">
-        <v>1046.684307603441</v>
+        <v>1388.514189308343</v>
       </c>
       <c r="V6" t="n">
-        <v>811.532199371698</v>
+        <v>1153.362081076601</v>
       </c>
       <c r="W6" t="n">
-        <v>557.2948426434964</v>
+        <v>899.124724348399</v>
       </c>
       <c r="X6" t="n">
-        <v>349.4433424379636</v>
+        <v>691.2732241428662</v>
       </c>
       <c r="Y6" t="n">
-        <v>235.0124701038391</v>
+        <v>483.5129253779123</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>305.7639782318931</v>
+        <v>444.4913979707636</v>
       </c>
       <c r="C7" t="n">
-        <v>305.7639782318931</v>
+        <v>275.5552150428567</v>
       </c>
       <c r="D7" t="n">
-        <v>305.7639782318931</v>
+        <v>125.438575630521</v>
       </c>
       <c r="E7" t="n">
-        <v>305.7639782318931</v>
+        <v>125.438575630521</v>
       </c>
       <c r="F7" t="n">
-        <v>305.7639782318931</v>
+        <v>125.438575630521</v>
       </c>
       <c r="G7" t="n">
-        <v>305.7639782318931</v>
+        <v>125.438575630521</v>
       </c>
       <c r="H7" t="n">
-        <v>153.0347753144871</v>
+        <v>33.6827695280754</v>
       </c>
       <c r="I7" t="n">
         <v>33.6827695280754</v>
       </c>
       <c r="J7" t="n">
-        <v>27.93839475630049</v>
+        <v>27.93839475630044</v>
       </c>
       <c r="K7" t="n">
-        <v>148.5233105874692</v>
+        <v>148.523310587469</v>
       </c>
       <c r="L7" t="n">
-        <v>358.3569215208643</v>
+        <v>358.356921520864</v>
       </c>
       <c r="M7" t="n">
-        <v>589.9861665014279</v>
+        <v>589.9861665014275</v>
       </c>
       <c r="N7" t="n">
-        <v>821.5424021750254</v>
+        <v>821.5424021750249</v>
       </c>
       <c r="O7" t="n">
         <v>1019.405768767886</v>
       </c>
       <c r="P7" t="n">
-        <v>1165.191378612032</v>
+        <v>1165.191378612031</v>
       </c>
       <c r="Q7" t="n">
-        <v>1182.690698049273</v>
+        <v>1182.690698049272</v>
       </c>
       <c r="R7" t="n">
-        <v>1059.927283950958</v>
+        <v>1182.690698049272</v>
       </c>
       <c r="S7" t="n">
-        <v>1059.927283950958</v>
+        <v>1182.690698049272</v>
       </c>
       <c r="T7" t="n">
-        <v>1059.927283950958</v>
+        <v>1182.690698049272</v>
       </c>
       <c r="U7" t="n">
-        <v>770.7844660573664</v>
+        <v>1182.690698049272</v>
       </c>
       <c r="V7" t="n">
-        <v>770.7844660573664</v>
+        <v>1182.690698049272</v>
       </c>
       <c r="W7" t="n">
-        <v>481.3672960204058</v>
+        <v>893.2735280123111</v>
       </c>
       <c r="X7" t="n">
-        <v>481.3672960204058</v>
+        <v>665.2839771142937</v>
       </c>
       <c r="Y7" t="n">
-        <v>481.3672960204058</v>
+        <v>444.4913979707636</v>
       </c>
     </row>
     <row r="8">
@@ -4780,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1540.262284242502</v>
+        <v>141.2769458819316</v>
       </c>
       <c r="C8" t="n">
-        <v>1540.262284242502</v>
+        <v>141.2769458819316</v>
       </c>
       <c r="D8" t="n">
-        <v>1181.996585635751</v>
+        <v>141.2769458819316</v>
       </c>
       <c r="E8" t="n">
-        <v>1181.996585635751</v>
+        <v>141.2769458819316</v>
       </c>
       <c r="F8" t="n">
-        <v>771.0106808461439</v>
+        <v>134.3314451327281</v>
       </c>
       <c r="G8" t="n">
-        <v>355.3059305704328</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L8" t="n">
         <v>795.755353087292</v>
@@ -4816,40 +4816,40 @@
         <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926627</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>2437.640120926627</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U8" t="n">
-        <v>2437.640120926627</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V8" t="n">
-        <v>2303.867374479394</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W8" t="n">
-        <v>2303.867374479394</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X8" t="n">
-        <v>1930.401616218314</v>
+        <v>918.0161179218651</v>
       </c>
       <c r="Y8" t="n">
-        <v>1540.262284242502</v>
+        <v>527.8767859460534</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966398</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155128</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542614</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488059</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756909</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182533</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
         <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500114</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310615</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L9" t="n">
-        <v>932.4978103101002</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M9" t="n">
-        <v>1295.759829269321</v>
+        <v>956.284402521753</v>
       </c>
       <c r="N9" t="n">
-        <v>1683.044957866266</v>
+        <v>1552.492103330613</v>
       </c>
       <c r="O9" t="n">
-        <v>2175.50262973664</v>
+        <v>1884.562538506775</v>
       </c>
       <c r="P9" t="n">
-        <v>2422.685363568937</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676483</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S9" t="n">
-        <v>2426.617474780097</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T9" t="n">
-        <v>2232.610846175227</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047139</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
-        <v>1769.368633815396</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087195</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881662</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
-        <v>1099.519478116708</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>476.1547555788524</v>
+        <v>919.6966947956497</v>
       </c>
       <c r="C10" t="n">
-        <v>307.2185726509455</v>
+        <v>750.7605118677428</v>
       </c>
       <c r="D10" t="n">
-        <v>157.1019332386098</v>
+        <v>600.6438724554071</v>
       </c>
       <c r="E10" t="n">
-        <v>157.1019332386098</v>
+        <v>452.7307788730139</v>
       </c>
       <c r="F10" t="n">
-        <v>157.1019332386098</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="G10" t="n">
-        <v>157.1019332386098</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H10" t="n">
         <v>157.1019332386098</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312203</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>824.219460709659</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1337.233965749941</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1114.255484944676</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1114.255484944676</v>
+        <v>1550.127289667437</v>
       </c>
       <c r="V10" t="n">
-        <v>859.5709967387896</v>
+        <v>1550.127289667437</v>
       </c>
       <c r="W10" t="n">
-        <v>570.1538267018291</v>
+        <v>1550.127289667437</v>
       </c>
       <c r="X10" t="n">
-        <v>570.1538267018291</v>
+        <v>1322.137738769419</v>
       </c>
       <c r="Y10" t="n">
-        <v>476.1547555788524</v>
+        <v>1101.345159625889</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5029,40 +5029,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5080,10 +5080,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5135,13 +5135,13 @@
         <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400717</v>
+        <v>956.9553291057288</v>
       </c>
       <c r="C13" t="n">
-        <v>513.8536007400717</v>
+        <v>788.0191461778219</v>
       </c>
       <c r="D13" t="n">
-        <v>363.7369613277359</v>
+        <v>637.9025067654861</v>
       </c>
       <c r="E13" t="n">
-        <v>240.7066105458822</v>
+        <v>489.989413183093</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797187</v>
+        <v>343.0994656851826</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000626</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000626</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2131.487582220363</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>2131.487582220363</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1876.803094014477</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1587.385923977516</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>1359.396373079499</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703114</v>
+        <v>1138.603793935968</v>
       </c>
     </row>
     <row r="14">
@@ -5254,43 +5254,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168592</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362666</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5314,16 +5314,16 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="15">
@@ -5360,25 +5360,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>738.7889117913853</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M15" t="n">
-        <v>1336.167399417937</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
-        <v>1963.765362972544</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5415,19 +5415,19 @@
         <v>580.8993044876688</v>
       </c>
       <c r="C16" t="n">
-        <v>538.7363435406111</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="D16" t="n">
-        <v>388.6197041282753</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E16" t="n">
-        <v>240.7066105458822</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F16" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5500,10 +5500,10 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5512,13 +5512,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5530,7 +5530,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5597,25 +5597,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>738.7889117913853</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,13 +5649,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>869.6905094135296</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>700.7543264856228</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D19" t="n">
-        <v>550.637687073287</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E19" t="n">
         <v>402.7245934908939</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2333.297989183966</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>2044.222762528164</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1789.538274322277</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1500.121104285317</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>1272.131553387299</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>1051.338974243769</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5728,49 +5728,49 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5788,16 +5788,16 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5831,28 +5831,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>705.9324428257312</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D22" t="n">
-        <v>555.8158034133954</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5965,43 +5965,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6010,31 +6010,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6062,10 +6062,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J24" t="n">
         <v>243.4633055756266</v>
@@ -6074,19 +6074,19 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O24" t="n">
-        <v>2297.690135143765</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>734.6461798836013</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C25" t="n">
-        <v>565.7099969556945</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D25" t="n">
-        <v>565.7099969556945</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E25" t="n">
-        <v>549.6145409888043</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6183,16 +6183,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1547.449290305074</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1319.459739407056</v>
       </c>
       <c r="Y25" t="n">
-        <v>916.2946447138411</v>
+        <v>1098.667160263526</v>
       </c>
     </row>
     <row r="26">
@@ -6202,46 +6202,46 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075801</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6253,25 +6253,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6299,31 +6299,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>542.9134462654469</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>542.9134462654469</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1140.291933891999</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N27" t="n">
-        <v>1767.889897446606</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3342.537229081859</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>3173.601046153952</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D28" t="n">
-        <v>3023.484406741616</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E28" t="n">
-        <v>2875.571313159223</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F28" t="n">
-        <v>2728.681365661313</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G28" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>4481.644515586507</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>4262.043050609448</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>3972.967823953646</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>3972.967823953646</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>3972.967823953646</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>3744.978273055629</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>3524.185693912098</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6457,25 +6457,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6484,16 +6484,16 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466573</v>
@@ -6536,19 +6536,19 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M30" t="n">
         <v>680.0291294438176</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>948.5505208511905</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C31" t="n">
-        <v>779.6143379232836</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232836</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408905</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>297.8113689946113</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W31" t="n">
-        <v>1350.99156482496</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X31" t="n">
-        <v>1350.99156482496</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y31" t="n">
-        <v>1130.19898568143</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="32">
@@ -6676,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6721,31 +6721,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6773,34 +6773,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>315.9123021921482</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>913.2907898187001</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1540.888753373307</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>762.5477693179085</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C34" t="n">
-        <v>593.6115863900017</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D34" t="n">
-        <v>593.6115863900017</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614387</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y34" t="n">
-        <v>762.5477693179085</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="35">
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
@@ -6946,43 +6946,43 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7010,10 +7010,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
         <v>243.4633055756266</v>
@@ -7031,13 +7031,13 @@
         <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1098.667160263526</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356194</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232836</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832663</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T37" t="n">
-        <v>2379.917379832663</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>2273.199413378161</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>2018.514925172274</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1729.097755135313</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>1501.108204237296</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>1280.315625093766</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7177,19 +7177,19 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7268,13 +7268,13 @@
         <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1016.58045691144</v>
+        <v>810.0653816078141</v>
       </c>
       <c r="C40" t="n">
-        <v>847.6442739835331</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="D40" t="n">
-        <v>697.5276345711974</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E40" t="n">
-        <v>549.6145409888043</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7359,25 +7359,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1836.157664970974</v>
+        <v>1440.495976479601</v>
       </c>
       <c r="W40" t="n">
-        <v>1546.740494934013</v>
+        <v>1440.495976479601</v>
       </c>
       <c r="X40" t="n">
-        <v>1318.750944035996</v>
+        <v>1212.506425581584</v>
       </c>
       <c r="Y40" t="n">
-        <v>1097.958364892466</v>
+        <v>991.7138464380538</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7408,13 +7408,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7493,25 +7493,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>680.0291294438176</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2757.723669558405</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C43" t="n">
-        <v>2588.787486630498</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D43" t="n">
-        <v>2588.787486630498</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E43" t="n">
-        <v>2588.787486630498</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F43" t="n">
-        <v>2588.787486630498</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>2421.591387345378</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>4440.9326143059</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>4221.331149328841</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U43" t="n">
-        <v>3932.255922673039</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V43" t="n">
-        <v>3677.571434467152</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W43" t="n">
-        <v>3388.154264430192</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X43" t="n">
-        <v>3160.164713532175</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y43" t="n">
-        <v>2939.372134388645</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7645,22 +7645,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7693,7 +7693,7 @@
         <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7730,25 +7730,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>840.8417932021785</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>768.5380889459582</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>599.6019060180513</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>449.4852666057155</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>301.5721730233224</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>301.5721730233224</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>301.5721730233224</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7842,16 +7842,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1398.968683817745</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1170.979132919728</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>950.1865537761979</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265838</v>
+        <v>15.37922103265839</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8139,22 +8139,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>14.1043098940285</v>
+        <v>42.56275186471078</v>
       </c>
       <c r="L4" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
-        <v>171.4142040457085</v>
+        <v>171.4142040457084</v>
       </c>
       <c r="N4" t="n">
         <v>163.8604018711117</v>
       </c>
       <c r="O4" t="n">
-        <v>74.60115408961757</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
-        <v>135.0065633140411</v>
+        <v>18.10760906709386</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>41.92993463898932</v>
+        <v>41.92993463898944</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8315,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>193.6499349213313</v>
+        <v>67.55889958092179</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8537,25 +8537,25 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>342.9044714621888</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>211.0329012241564</v>
       </c>
       <c r="O9" t="n">
-        <v>162.0073097921339</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>24.63391537253403</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,10 +23469,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>152.4862366927566</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23512,7 +23512,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2.103206497849897e-12</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23655,22 +23655,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>125.5054897610407</v>
+        <v>136.2749052347519</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23895,10 +23895,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>104.8770068749571</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24129,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>117.6820817884491</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>110.0033420516648</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24363,16 +24363,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>130.4994612393479</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24423,16 +24423,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>146.9958004224549</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24603,16 +24603,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24651,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>40.30478226780076</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24660,10 +24660,10 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24736,7 +24736,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>103.8640922513198</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24900,10 +24900,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>204.6402955209708</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25074,16 +25074,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>38.72167599501793</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25134,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>65.54986409393064</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25317,13 +25317,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>180.5336875992872</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>99.26785128072173</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25560,16 +25560,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,19 +25599,19 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>6.726664722474283</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>57.2291039219412</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>15.8825942891924</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26082,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>840134.087947515</v>
+        <v>840134.0879475147</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>840134.0879475152</v>
+        <v>840134.087947515</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>840134.087947515</v>
+        <v>840134.0879475152</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>840134.0879475152</v>
+        <v>840134.0879475151</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>840134.0879475148</v>
+        <v>840134.0879475151</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>840134.0879475151</v>
+        <v>840134.087947515</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>840134.0879475152</v>
+        <v>840134.087947515</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>840134.0879475152</v>
+        <v>840134.0879475151</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>840134.0879475151</v>
+        <v>840134.0879475152</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>840134.0879475151</v>
+        <v>840134.087947515</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516052</v>
+        <v>595255.2831516053</v>
       </c>
       <c r="C2" t="n">
-        <v>595255.2831516057</v>
+        <v>595255.2831516055</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516053</v>
+        <v>595255.2831516049</v>
       </c>
       <c r="E2" t="n">
         <v>585181.2847752544</v>
       </c>
       <c r="F2" t="n">
-        <v>585181.2847752548</v>
+        <v>585181.2847752543</v>
       </c>
       <c r="G2" t="n">
-        <v>585181.2847752545</v>
+        <v>585181.2847752544</v>
       </c>
       <c r="H2" t="n">
+        <v>585181.2847752544</v>
+      </c>
+      <c r="I2" t="n">
+        <v>585181.2847752542</v>
+      </c>
+      <c r="J2" t="n">
         <v>585181.2847752543</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
         <v>585181.2847752543</v>
       </c>
-      <c r="J2" t="n">
-        <v>585181.2847752541</v>
-      </c>
-      <c r="K2" t="n">
-        <v>585181.2847752545</v>
-      </c>
       <c r="L2" t="n">
-        <v>585181.2847752543</v>
+        <v>585181.2847752544</v>
       </c>
       <c r="M2" t="n">
         <v>585181.2847752544</v>
       </c>
       <c r="N2" t="n">
-        <v>585181.2847752543</v>
+        <v>585181.2847752544</v>
       </c>
       <c r="O2" t="n">
-        <v>585181.2847752544</v>
+        <v>585181.2847752542</v>
       </c>
       <c r="P2" t="n">
-        <v>585181.2847752542</v>
+        <v>585181.2847752547</v>
       </c>
     </row>
     <row r="3">
@@ -26368,13 +26368,13 @@
         <v>591356.9025208454</v>
       </c>
       <c r="C3" t="n">
-        <v>178997.5061427121</v>
+        <v>178997.5061427116</v>
       </c>
       <c r="D3" t="n">
-        <v>301519.8707731207</v>
+        <v>301519.8707731208</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245457</v>
+        <v>507485.4416245458</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,22 +26383,22 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.356633406937666e-11</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854467</v>
+        <v>49064.94472854459</v>
       </c>
       <c r="K3" t="n">
-        <v>41617.52445267277</v>
+        <v>41617.52445267281</v>
       </c>
       <c r="L3" t="n">
-        <v>73739.30240019542</v>
+        <v>73739.30240019543</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289266</v>
+        <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,40 +26417,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>277470.8484307131</v>
+        <v>277470.8484307132</v>
       </c>
       <c r="C4" t="n">
-        <v>229588.1389806967</v>
+        <v>229588.1389806968</v>
       </c>
       <c r="D4" t="n">
         <v>145155.2306979382</v>
       </c>
       <c r="E4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184265</v>
       </c>
       <c r="F4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184265</v>
       </c>
       <c r="G4" t="n">
         <v>13606.80811184274</v>
       </c>
       <c r="H4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.8081118427</v>
       </c>
       <c r="I4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184281</v>
       </c>
       <c r="J4" t="n">
-        <v>13606.80811184277</v>
+        <v>13606.80811184278</v>
       </c>
       <c r="K4" t="n">
         <v>13606.80811184275</v>
       </c>
       <c r="L4" t="n">
-        <v>13606.80811184281</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="M4" t="n">
-        <v>13606.80811184281</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="N4" t="n">
         <v>13606.80811184274</v>
@@ -26459,7 +26459,7 @@
         <v>13606.80811184274</v>
       </c>
       <c r="P4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184279</v>
       </c>
     </row>
     <row r="5">
@@ -26472,10 +26472,10 @@
         <v>56985.80041161358</v>
       </c>
       <c r="C5" t="n">
-        <v>69851.9793002918</v>
+        <v>69851.97930029177</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-330558.268211567</v>
+        <v>-330558.2682115669</v>
       </c>
       <c r="C6" t="n">
-        <v>116817.6587279052</v>
+        <v>116817.6587279053</v>
       </c>
       <c r="D6" t="n">
-        <v>55642.4092407017</v>
+        <v>55642.40924070121</v>
       </c>
       <c r="E6" t="n">
-        <v>-37033.49478504115</v>
+        <v>-37380.87403939811</v>
       </c>
       <c r="F6" t="n">
-        <v>470451.9468395052</v>
+        <v>470104.5675851476</v>
       </c>
       <c r="G6" t="n">
-        <v>470451.9468395047</v>
+        <v>470104.5675851476</v>
       </c>
       <c r="H6" t="n">
-        <v>470451.9468395045</v>
+        <v>470104.5675851476</v>
       </c>
       <c r="I6" t="n">
-        <v>470451.9468395045</v>
+        <v>470104.5675851473</v>
       </c>
       <c r="J6" t="n">
-        <v>421387.0021109595</v>
+        <v>421039.6228566029</v>
       </c>
       <c r="K6" t="n">
-        <v>428834.422386832</v>
+        <v>428487.0431324747</v>
       </c>
       <c r="L6" t="n">
-        <v>396712.644439309</v>
+        <v>396365.2651849522</v>
       </c>
       <c r="M6" t="n">
-        <v>337844.653110578</v>
+        <v>337497.2738562209</v>
       </c>
       <c r="N6" t="n">
-        <v>470451.9468395045</v>
+        <v>470104.5675851476</v>
       </c>
       <c r="O6" t="n">
-        <v>470451.9468395046</v>
+        <v>470104.5675851474</v>
       </c>
       <c r="P6" t="n">
-        <v>470451.9468395044</v>
+        <v>470104.5675851477</v>
       </c>
     </row>
   </sheetData>
@@ -26709,25 +26709,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>2.945791758672082e-14</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>3.218023548783847e-14</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129047</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>687.6696919955707</v>
+        <v>687.6696919955702</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26792,10 +26792,10 @@
         <v>187.52558716632</v>
       </c>
       <c r="C4" t="n">
-        <v>349.2299344537561</v>
+        <v>349.2299344537555</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26925,13 +26925,13 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2.945791758672082e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129047</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>139.199751082666</v>
+        <v>139.1997510826657</v>
       </c>
       <c r="D3" t="n">
-        <v>246.3952001219687</v>
+        <v>246.3952001219689</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241345</v>
+        <v>433.9106082241346</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27014,13 +27014,13 @@
         <v>187.52558716632</v>
       </c>
       <c r="C4" t="n">
-        <v>161.7043472874361</v>
+        <v>161.7043472874356</v>
       </c>
       <c r="D4" t="n">
-        <v>291.354897646283</v>
+        <v>291.3548976462833</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996093</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="K4" t="n">
-        <v>161.7043472874359</v>
+        <v>161.704347287436</v>
       </c>
       <c r="L4" t="n">
-        <v>291.354897646283</v>
+        <v>291.3548976462831</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996093</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27162,13 +27162,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>2.945791758672082e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27260,13 +27260,13 @@
         <v>187.52558716632</v>
       </c>
       <c r="K4" t="n">
-        <v>161.7043472874361</v>
+        <v>161.7043472874356</v>
       </c>
       <c r="L4" t="n">
-        <v>291.354897646283</v>
+        <v>291.3548976462833</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996093</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>195.2082544971606</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27387,13 +27387,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>194.4047829059418</v>
       </c>
       <c r="F2" t="n">
-        <v>219.3504585753914</v>
+        <v>219.3504585753915</v>
       </c>
       <c r="G2" t="n">
-        <v>259.2905951976447</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>316.8938261062223</v>
@@ -27435,10 +27435,10 @@
         <v>213.4438810562068</v>
       </c>
       <c r="U2" t="n">
-        <v>63.64367339871033</v>
+        <v>251.1692605650303</v>
       </c>
       <c r="V2" t="n">
-        <v>140.2266713038149</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>245.5285338536984</v>
       </c>
     </row>
     <row r="3">
@@ -27457,10 +27457,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -27469,7 +27469,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>136.1637893657753</v>
@@ -27505,28 +27505,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>26.91122581714237</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920012</v>
+        <v>195.4095977920013</v>
       </c>
       <c r="U3" t="n">
-        <v>205.7604436273802</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V3" t="n">
-        <v>45.27499998310526</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>18.24739803715747</v>
+        <v>18.24739803715752</v>
       </c>
       <c r="Y3" t="n">
-        <v>18.15710861098435</v>
+        <v>31.61189272389547</v>
       </c>
     </row>
     <row r="4">
@@ -27536,22 +27536,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.0019352027142</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>153.4336708318196</v>
@@ -27560,7 +27560,7 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>23.43375830553084</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,19 +27581,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.343082173845772</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>132.8223696106904</v>
+        <v>110.022476759081</v>
       </c>
       <c r="S4" t="n">
-        <v>169.3709004281129</v>
+        <v>206.7802557954962</v>
       </c>
       <c r="T4" t="n">
-        <v>36.19408632378009</v>
+        <v>223.7196734901001</v>
       </c>
       <c r="U4" t="n">
-        <v>98.73949432713026</v>
+        <v>286.2650814934503</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27602,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>38.1840682227172</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27621,22 +27621,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>5.453107166926884</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>32.70043561850628</v>
       </c>
       <c r="F5" t="n">
-        <v>57.64611128795536</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>63.3083017870249</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>311.1628534397887</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>103.8974541908713</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>146.0239967969023</v>
+        <v>146.0239967969024</v>
       </c>
       <c r="T5" t="n">
         <v>210.9942452356465</v>
@@ -27678,13 +27678,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0.01103426365750693</v>
       </c>
       <c r="X5" t="n">
-        <v>166.0268286024722</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>59.98341335771153</v>
       </c>
     </row>
     <row r="6">
@@ -27694,28 +27694,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>135.8643785804277</v>
       </c>
       <c r="H6" t="n">
-        <v>97.95007950277716</v>
+        <v>97.09065260080503</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>38.47015094419595</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27745,10 +27745,10 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>144.2088206736375</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>194.2027622142185</v>
       </c>
       <c r="U6" t="n">
         <v>225.8440703321075</v>
@@ -27763,7 +27763,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>92.3961321665212</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27773,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.984695571309743</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27791,10 +27791,10 @@
         <v>166.7509192581389</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>60.36366284681077</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>118.1584857285477</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>121.535779957332</v>
       </c>
       <c r="S7" t="n">
         <v>202.4057324704885</v>
@@ -27830,7 +27830,7 @@
         <v>222.6471508178238</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2513897146553</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27839,10 +27839,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>329.2938907938762</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247044</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,16 +27906,16 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>195.3172394873741</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28019,16 +28019,16 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28058,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>200.771512018211</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>125.5255729403478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28089,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>-6.063252071556433e-14</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>-6.063252071556433e-14</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>-6.063252071556433e-14</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>-6.063252071556433e-14</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>-6.063252071556433e-14</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-6.063252071556433e-14</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>-6.063252071556433e-14</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>-6.063252071556433e-14</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>-6.063252071556433e-14</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>-6.063252071556433e-14</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>-6.063252071556433e-14</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>-6.063252071556433e-14</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>-6.063252071556433e-14</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>-6.063252071556433e-14</v>
       </c>
     </row>
     <row r="12">
@@ -28268,7 +28268,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>-4.266508374351875e-12</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -28326,25 +28326,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>-6.063252071556433e-14</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>-6.063252071556433e-14</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>-6.063252071556433e-14</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>-6.063252071556433e-14</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>-6.063252071556433e-14</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-6.063252071556433e-14</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>-6.063252071556433e-14</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28377,22 +28377,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>-6.063252071556433e-14</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>-6.063252071556433e-14</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>-6.063252071556433e-14</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>-6.063252071556433e-14</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>-6.063252071556433e-14</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>-1.407649475909081e-12</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -28575,7 +28575,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>-6.063252071556433e-14</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -28620,7 +28620,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>-6.063252071556433e-14</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -28860,7 +28860,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>-8.722622624190989e-13</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -29055,7 +29055,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29325,13 +29325,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>6.107776353646526e-13</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>8.242295734817162e-13</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -29763,7 +29763,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -30003,7 +30003,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30711,7 +30711,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -31044,13 +31044,13 @@
         <v>2.204904285077002</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954486</v>
+        <v>22.58097600954485</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043121</v>
+        <v>85.00457245043118</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655544</v>
+        <v>187.1384950655543</v>
       </c>
       <c r="K2" t="n">
         <v>280.4720934528639</v>
@@ -31062,25 +31062,25 @@
         <v>387.1618995470274</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470025</v>
+        <v>393.4265838470024</v>
       </c>
       <c r="O2" t="n">
         <v>371.501566862268</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244295</v>
+        <v>317.0679923244294</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151093</v>
+        <v>238.1048576151092</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974684</v>
+        <v>138.5038187974683</v>
       </c>
       <c r="S2" t="n">
         <v>50.24425639619223</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924582</v>
+        <v>9.651968507924579</v>
       </c>
       <c r="U2" t="n">
         <v>0.1763923428061601</v>
@@ -31126,7 +31126,7 @@
         <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>40.61782109590851</v>
+        <v>40.6178210959085</v>
       </c>
       <c r="J3" t="n">
         <v>111.4584056340083</v>
@@ -31135,16 +31135,16 @@
         <v>190.5001680621737</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405033</v>
+        <v>256.1509851405032</v>
       </c>
       <c r="M3" t="n">
-        <v>298.916117797533</v>
+        <v>298.9161177975329</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829655</v>
+        <v>306.8275379829654</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292674</v>
+        <v>280.6872536292673</v>
       </c>
       <c r="P3" t="n">
         <v>225.2762668628872</v>
@@ -31153,16 +31153,16 @@
         <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550077</v>
+        <v>73.24660833550075</v>
       </c>
       <c r="S3" t="n">
-        <v>21.91292641288821</v>
+        <v>21.9129264128882</v>
       </c>
       <c r="T3" t="n">
-        <v>4.75513090282037</v>
+        <v>4.755130902820369</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390164</v>
+        <v>0.07761367088390163</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445822</v>
+        <v>0.9890441557445819</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620018</v>
+        <v>8.793501675620016</v>
       </c>
       <c r="I4" t="n">
         <v>29.74325515639162</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114196</v>
+        <v>69.92542181114193</v>
       </c>
       <c r="K4" t="n">
         <v>114.9089482765069</v>
@@ -31229,19 +31229,19 @@
         <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784861</v>
+        <v>82.81896107784858</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647911</v>
+        <v>44.4710217664791</v>
       </c>
       <c r="S4" t="n">
         <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181395</v>
+        <v>4.225915938181394</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061363</v>
+        <v>0.05394786304061362</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.764501274354051</v>
+        <v>2.764501274354049</v>
       </c>
       <c r="H5" t="n">
-        <v>28.31194867597843</v>
+        <v>28.31194867597841</v>
       </c>
       <c r="I5" t="n">
-        <v>106.5784353795347</v>
+        <v>106.5784353795346</v>
       </c>
       <c r="J5" t="n">
-        <v>234.6335900342073</v>
+        <v>234.6335900342072</v>
       </c>
       <c r="K5" t="n">
-        <v>351.6549289776144</v>
+        <v>351.6549289776141</v>
       </c>
       <c r="L5" t="n">
-        <v>436.2590348526273</v>
+        <v>436.259034852627</v>
       </c>
       <c r="M5" t="n">
-        <v>485.4222343904211</v>
+        <v>485.4222343904208</v>
       </c>
       <c r="N5" t="n">
-        <v>493.2768736361796</v>
+        <v>493.2768736361793</v>
       </c>
       <c r="O5" t="n">
-        <v>465.7873640893214</v>
+        <v>465.7873640893212</v>
       </c>
       <c r="P5" t="n">
-        <v>397.5387388787058</v>
+        <v>397.5387388787055</v>
       </c>
       <c r="Q5" t="n">
-        <v>298.5350369909012</v>
+        <v>298.535036990901</v>
       </c>
       <c r="R5" t="n">
-        <v>173.6556031751428</v>
+        <v>173.6556031751427</v>
       </c>
       <c r="S5" t="n">
-        <v>62.996072789343</v>
+        <v>62.99607278934296</v>
       </c>
       <c r="T5" t="n">
         <v>12.10160432848486</v>
       </c>
       <c r="U5" t="n">
-        <v>0.221160101948324</v>
+        <v>0.2211601019483239</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.479138582782926</v>
+        <v>1.479138582782925</v>
       </c>
       <c r="H6" t="n">
-        <v>14.28536473371931</v>
+        <v>14.2853647337193</v>
       </c>
       <c r="I6" t="n">
-        <v>50.92648190721916</v>
+        <v>50.92648190721913</v>
       </c>
       <c r="J6" t="n">
-        <v>139.7461588233641</v>
+        <v>139.746158823364</v>
       </c>
       <c r="K6" t="n">
-        <v>238.8484438698201</v>
+        <v>238.8484438698199</v>
       </c>
       <c r="L6" t="n">
-        <v>321.161208511705</v>
+        <v>321.1612085117048</v>
       </c>
       <c r="M6" t="n">
-        <v>374.779982137586</v>
+        <v>374.7799821375858</v>
       </c>
       <c r="N6" t="n">
-        <v>384.699293072126</v>
+        <v>384.6992930721257</v>
       </c>
       <c r="O6" t="n">
-        <v>351.92469605362</v>
+        <v>351.9246960536198</v>
       </c>
       <c r="P6" t="n">
-        <v>282.450594812294</v>
+        <v>282.4505948122938</v>
       </c>
       <c r="Q6" t="n">
-        <v>188.8107426022556</v>
+        <v>188.8107426022555</v>
       </c>
       <c r="R6" t="n">
-        <v>91.83634113103116</v>
+        <v>91.83634113103111</v>
       </c>
       <c r="S6" t="n">
-        <v>27.47435043020038</v>
+        <v>27.47435043020036</v>
       </c>
       <c r="T6" t="n">
-        <v>5.961966480603106</v>
+        <v>5.961966480603103</v>
       </c>
       <c r="U6" t="n">
-        <v>0.09731174886729778</v>
+        <v>0.09731174886729772</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31439,46 +31439,46 @@
         <v>1.240060100319881</v>
       </c>
       <c r="H7" t="n">
-        <v>11.02526161920768</v>
+        <v>11.02526161920767</v>
       </c>
       <c r="I7" t="n">
-        <v>37.29198919871063</v>
+        <v>37.2919891987106</v>
       </c>
       <c r="J7" t="n">
-        <v>87.67224909261562</v>
+        <v>87.67224909261556</v>
       </c>
       <c r="K7" t="n">
         <v>144.0724371098916</v>
       </c>
       <c r="L7" t="n">
-        <v>184.3631170966486</v>
+        <v>184.3631170966485</v>
       </c>
       <c r="M7" t="n">
-        <v>194.385057361961</v>
+        <v>194.3850573619609</v>
       </c>
       <c r="N7" t="n">
-        <v>189.7630151698598</v>
+        <v>189.7630151698597</v>
       </c>
       <c r="O7" t="n">
-        <v>175.2768585433957</v>
+        <v>175.2768585433955</v>
       </c>
       <c r="P7" t="n">
-        <v>149.97963249687</v>
+        <v>149.9796324968699</v>
       </c>
       <c r="Q7" t="n">
-        <v>103.8381234913312</v>
+        <v>103.8381234913311</v>
       </c>
       <c r="R7" t="n">
-        <v>55.75761141983757</v>
+        <v>55.75761141983753</v>
       </c>
       <c r="S7" t="n">
-        <v>21.61086556648375</v>
+        <v>21.61086556648373</v>
       </c>
       <c r="T7" t="n">
-        <v>5.298438610457674</v>
+        <v>5.29843861045767</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06763964183562998</v>
+        <v>0.06763964183562993</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857144</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730006</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342226</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190646</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.009120711347161</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178439</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177245</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405676</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997903</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000174</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31679,25 +31679,25 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335773</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31706,16 +31706,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759588</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069563</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024988</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31843,19 +31843,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>363.5371514786841</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31864,16 +31864,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32080,10 +32080,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>339.3493584601592</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32095,13 +32095,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>134.7284881171895</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32259,7 +32259,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S17" t="n">
         <v>125.31755462929</v>
@@ -32317,28 +32317,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>705.9257335045849</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32551,19 +32551,19 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>233.9389431948335</v>
+        <v>652.0478969157701</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
@@ -32572,10 +32572,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32794,22 +32794,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>545.3845241768652</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>156.3072281639545</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33028,13 +33028,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>440.316328560036</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
@@ -33046,7 +33046,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33265,13 +33265,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>583.1096135868578</v>
+        <v>245.8118639189582</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
@@ -33417,7 +33417,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33502,10 +33502,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>211.7351844430274</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33514,16 +33514,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33681,7 +33681,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33751,7 +33751,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>363.5371514786841</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33760,7 +33760,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33988,7 +33988,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>363.5371514786841</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -33997,7 +33997,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34137,7 +34137,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162566</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
         <v>965.6463440175675</v>
@@ -34213,28 +34213,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>579.5299594447137</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34450,28 +34450,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>602.8420149078241</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.09259053886808</v>
+        <v>6.092590538868052</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788338</v>
+        <v>60.38224240788333</v>
       </c>
       <c r="L2" t="n">
-        <v>112.1840179973021</v>
+        <v>112.184017997302</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197547</v>
+        <v>156.8156663197546</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504116</v>
+        <v>164.0135202504115</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405813</v>
+        <v>141.4033554405812</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656915996</v>
+        <v>85.8349965691599</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065978</v>
+        <v>15.79916774065975</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781472</v>
+        <v>52.65872908781469</v>
       </c>
       <c r="L3" t="n">
-        <v>117.5966053606291</v>
+        <v>117.596605360629</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755147</v>
+        <v>156.7820838755146</v>
       </c>
       <c r="N3" t="n">
         <v>175.4858258996321</v>
       </c>
       <c r="O3" t="n">
-        <v>138.091009184823</v>
+        <v>138.0910091848229</v>
       </c>
       <c r="P3" t="n">
-        <v>91.301859448557</v>
+        <v>91.30185944855694</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764999</v>
+        <v>10.60944440764996</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>28.45844197068227</v>
       </c>
       <c r="L4" t="n">
         <v>174.6339172880152</v>
@@ -34871,10 +34871,10 @@
         <v>187.52558716632</v>
       </c>
       <c r="O4" t="n">
-        <v>75.94151139701812</v>
+        <v>164.382023673283</v>
       </c>
       <c r="P4" t="n">
-        <v>116.8989542469473</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>53.58768550752106</v>
+        <v>53.58768550752092</v>
       </c>
       <c r="K5" t="n">
-        <v>131.5650779326339</v>
+        <v>131.5650779326336</v>
       </c>
       <c r="L5" t="n">
-        <v>200.49261988264</v>
+        <v>200.4926198826398</v>
       </c>
       <c r="M5" t="n">
-        <v>255.0760011631484</v>
+        <v>255.076001163148</v>
       </c>
       <c r="N5" t="n">
-        <v>263.8638100395887</v>
+        <v>263.8638100395884</v>
       </c>
       <c r="O5" t="n">
-        <v>235.6891526676347</v>
+        <v>235.6891526676344</v>
       </c>
       <c r="P5" t="n">
-        <v>166.3057431234362</v>
+        <v>166.3057431234359</v>
       </c>
       <c r="Q5" t="n">
-        <v>76.22934711645175</v>
+        <v>76.22934711645152</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>12.90853215669736</v>
+        <v>138.9995674971061</v>
       </c>
       <c r="K6" t="n">
-        <v>101.0070048954611</v>
+        <v>101.0070048954609</v>
       </c>
       <c r="L6" t="n">
-        <v>182.6068287318308</v>
+        <v>182.6068287318306</v>
       </c>
       <c r="M6" t="n">
-        <v>232.6459482155677</v>
+        <v>232.6459482155674</v>
       </c>
       <c r="N6" t="n">
-        <v>253.3575809887926</v>
+        <v>253.3575809887924</v>
       </c>
       <c r="O6" t="n">
-        <v>209.3284516091756</v>
+        <v>209.3284516091754</v>
       </c>
       <c r="P6" t="n">
-        <v>148.4761873979637</v>
+        <v>148.4761873979635</v>
       </c>
       <c r="Q6" t="n">
-        <v>242.4789034375654</v>
+        <v>116.3878680971557</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,25 +35096,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>121.8029452840088</v>
+        <v>121.8029452840087</v>
       </c>
       <c r="L7" t="n">
-        <v>211.9531423569647</v>
+        <v>211.9531423569646</v>
       </c>
       <c r="M7" t="n">
-        <v>233.9689343238016</v>
+        <v>233.9689343238015</v>
       </c>
       <c r="N7" t="n">
-        <v>233.8951875490884</v>
+        <v>233.8951875490883</v>
       </c>
       <c r="O7" t="n">
-        <v>199.8619864574353</v>
+        <v>199.8619864574352</v>
       </c>
       <c r="P7" t="n">
         <v>147.2581917617634</v>
       </c>
       <c r="Q7" t="n">
-        <v>17.67608023963679</v>
+        <v>17.67608023963672</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407339</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457279</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376316</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637951</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.2916633093991</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091745</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434849</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>640.5848321000391</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
-        <v>391.197099592874</v>
+        <v>602.2300008170303</v>
       </c>
       <c r="O9" t="n">
-        <v>497.4319917882571</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>568.1422977634694</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308546</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977097</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870597</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35494,16 +35494,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>220.9409070342396</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35512,7 +35512,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35728,10 +35728,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>200.7949786802851</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35743,13 +35743,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>0.7540807028592577</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35907,7 +35907,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,28 +35965,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>574.5840214212516</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36199,19 +36199,19 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>91.80490927281522</v>
+        <v>509.9138629937518</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
@@ -36220,10 +36220,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36442,22 +36442,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>406.830144396991</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>22.33282074962425</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36676,13 +36676,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>302.474889585677</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
@@ -36694,7 +36694,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36913,13 +36913,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>440.9755796648395</v>
+        <v>103.6778299969399</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
@@ -37065,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37150,10 +37150,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>73.18080466315317</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37162,16 +37162,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37399,7 +37399,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>220.9409070342396</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37408,7 +37408,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37636,7 +37636,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>220.9409070342396</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37645,7 +37645,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37785,7 +37785,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
         <v>735.3001107902948</v>
@@ -37861,28 +37861,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>440.9755796648395</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38098,28 +38098,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>471.5003028244908</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_21_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_21_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2094142.292720453</v>
+        <v>2095902.823023238</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283194</v>
+        <v>416855.1052283181</v>
       </c>
     </row>
     <row r="9">
@@ -667,10 +667,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>187.52558716632</v>
+        <v>133.8333590606437</v>
       </c>
       <c r="F2" t="n">
-        <v>187.52558716632</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>13.09783323005805</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>11.36529914368134</v>
+        <v>11.36529914368131</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="Y2" t="n">
-        <v>140.7094048023552</v>
+        <v>187.52558716632</v>
       </c>
     </row>
     <row r="3">
@@ -740,16 +740,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>26.91122581714238</v>
+        <v>26.91122581714237</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -803,10 +803,10 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>187.52558716632</v>
+        <v>84.14553079462108</v>
       </c>
       <c r="Y3" t="n">
-        <v>174.0708030534089</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -828,10 +828,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.0019352027142</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -861,16 +861,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.343082173845801</v>
+        <v>3.343082173845772</v>
       </c>
       <c r="R4" t="n">
-        <v>22.79989285160934</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>187.52558716632</v>
+        <v>44.38078003139224</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -898,22 +898,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>349.2299344537507</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>349.2299344537507</v>
       </c>
       <c r="E5" t="n">
-        <v>349.2299344537555</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>12.538236240781</v>
+        <v>300.7256805251521</v>
       </c>
       <c r="H5" t="n">
-        <v>311.1628534397887</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -958,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.2299344537555</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>326.2545252983421</v>
+        <v>349.2299344537507</v>
       </c>
     </row>
     <row r="6">
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -983,16 +983,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>137.0405361008704</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.8594269019721322</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>8.321493021612028</v>
+        <v>8.321493021612596</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1065,19 +1065,19 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>90.83824804142114</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>5.686931024057216</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>237.6271293791316</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1135,10 +1135,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1147,7 +1147,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>82.25381197907775</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1183,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>259.6580847920586</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1308,10 +1308,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>85.4556421029896</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>50.98074812542808</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1381,13 +1381,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695535</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174123</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1536,7 +1536,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>146.4339626465652</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1545,10 +1545,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185698</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1581,10 +1581,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>64.91921363453162</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>5.890337106881638</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1618,13 +1618,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444117</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695535</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784705</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1764,16 +1764,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>30.9719158638759</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1782,7 +1782,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1815,10 +1815,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>69.82863813027645</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272843</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1852,13 +1852,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722612</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187857</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1900,7 +1900,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2001,25 +2001,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>138.2893995353463</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2058,7 +2058,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2140,10 +2140,10 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701358</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2241,25 +2241,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>28.75188085812005</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444125</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2475,19 +2475,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2535,10 +2535,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>194.9085394018857</v>
       </c>
       <c r="W25" t="n">
-        <v>139.5271979141361</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881278</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2715,25 +2715,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>28.75188085812011</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>20.72279572932656</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2775,7 +2775,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2851,7 +2851,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2958,19 +2958,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>61.66004604094908</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>13.03790159951642</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3189,10 +3189,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3204,7 +3204,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3246,7 +3246,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>186.5877792298974</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3429,13 +3429,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>9.146142788179482</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>35.88641949135544</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3663,13 +3663,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3678,7 +3678,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -3720,10 +3720,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>245.4109786013537</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3897,19 +3897,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>143.4157347120537</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3991,7 +3991,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187857</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
         <v>283.1540821444137</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>407.0717515820915</v>
+        <v>170.3628934706927</v>
       </c>
       <c r="C2" t="n">
-        <v>407.0717515820915</v>
+        <v>170.3628934706927</v>
       </c>
       <c r="D2" t="n">
-        <v>407.0717515820915</v>
+        <v>170.3628934706927</v>
       </c>
       <c r="E2" t="n">
-        <v>217.6519665656066</v>
+        <v>35.17768229832528</v>
       </c>
       <c r="F2" t="n">
-        <v>28.23218154912181</v>
+        <v>28.2321815491218</v>
       </c>
       <c r="G2" t="n">
         <v>15.0020469733056</v>
@@ -4330,19 +4330,19 @@
         <v>15.0020469733056</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678535</v>
+        <v>21.033711606785</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058962</v>
+        <v>80.81213159058956</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079189</v>
+        <v>191.8743094079184</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644756</v>
+        <v>347.1218190644754</v>
       </c>
       <c r="N2" t="n">
-        <v>509.495204112383</v>
+        <v>509.4952041123829</v>
       </c>
       <c r="O2" t="n">
         <v>649.4845259985584</v>
@@ -4354,28 +4354,28 @@
         <v>750.1023486652798</v>
       </c>
       <c r="R2" t="n">
-        <v>738.6222485201471</v>
+        <v>738.6222485201472</v>
       </c>
       <c r="S2" t="n">
-        <v>738.6222485201471</v>
+        <v>738.6222485201472</v>
       </c>
       <c r="T2" t="n">
-        <v>738.6222485201471</v>
+        <v>738.6222485201472</v>
       </c>
       <c r="U2" t="n">
-        <v>738.6222485201471</v>
+        <v>738.6222485201472</v>
       </c>
       <c r="V2" t="n">
-        <v>738.6222485201471</v>
+        <v>738.6222485201472</v>
       </c>
       <c r="W2" t="n">
-        <v>738.6222485201471</v>
+        <v>738.6222485201472</v>
       </c>
       <c r="X2" t="n">
-        <v>738.6222485201471</v>
+        <v>549.2024635036623</v>
       </c>
       <c r="Y2" t="n">
-        <v>596.4915365985762</v>
+        <v>359.7826784871775</v>
       </c>
     </row>
     <row r="3">
@@ -4385,16 +4385,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>189.4550762544326</v>
+        <v>469.7084696131274</v>
       </c>
       <c r="C3" t="n">
-        <v>15.0020469733056</v>
+        <v>469.7084696131274</v>
       </c>
       <c r="D3" t="n">
-        <v>15.0020469733056</v>
+        <v>320.7740599518761</v>
       </c>
       <c r="E3" t="n">
-        <v>15.0020469733056</v>
+        <v>161.5366049464206</v>
       </c>
       <c r="F3" t="n">
         <v>15.0020469733056</v>
@@ -4412,19 +4412,19 @@
         <v>15.0020469733056</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024219</v>
+        <v>67.13418877024208</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772651</v>
+        <v>183.554828077265</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140246</v>
+        <v>338.7690911140245</v>
       </c>
       <c r="N3" t="n">
         <v>512.5000587546604</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476349</v>
+        <v>649.2101578476348</v>
       </c>
       <c r="P3" t="n">
         <v>739.5989987017064</v>
@@ -4451,10 +4451,10 @@
         <v>722.9192922843279</v>
       </c>
       <c r="X3" t="n">
-        <v>533.499507267843</v>
+        <v>637.9238066331955</v>
       </c>
       <c r="Y3" t="n">
-        <v>357.6704132745007</v>
+        <v>637.9238066331955</v>
       </c>
     </row>
     <row r="4">
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>352.6270533382975</v>
+        <v>330.8281773991229</v>
       </c>
       <c r="C4" t="n">
-        <v>183.6908704103906</v>
+        <v>161.891994471216</v>
       </c>
       <c r="D4" t="n">
-        <v>183.6908704103906</v>
+        <v>161.891994471216</v>
       </c>
       <c r="E4" t="n">
-        <v>183.6908704103906</v>
+        <v>161.891994471216</v>
       </c>
       <c r="F4" t="n">
-        <v>183.6908704103906</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G4" t="n">
         <v>15.0020469733056</v>
@@ -4491,19 +4491,19 @@
         <v>15.0020469733056</v>
       </c>
       <c r="K4" t="n">
-        <v>43.17590452428104</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="L4" t="n">
-        <v>216.0634826394161</v>
+        <v>187.8896250884407</v>
       </c>
       <c r="M4" t="n">
-        <v>401.7138139340728</v>
+        <v>285.9838492295951</v>
       </c>
       <c r="N4" t="n">
-        <v>587.3641452287296</v>
+        <v>471.6341805242519</v>
       </c>
       <c r="O4" t="n">
-        <v>750.1023486652798</v>
+        <v>634.372383960802</v>
       </c>
       <c r="P4" t="n">
         <v>750.1023486652798</v>
@@ -4512,28 +4512,28 @@
         <v>746.7254979846275</v>
       </c>
       <c r="R4" t="n">
-        <v>723.6953031850221</v>
+        <v>746.7254979846275</v>
       </c>
       <c r="S4" t="n">
-        <v>723.6953031850221</v>
+        <v>746.7254979846275</v>
       </c>
       <c r="T4" t="n">
-        <v>723.6953031850221</v>
+        <v>557.3057129681426</v>
       </c>
       <c r="U4" t="n">
-        <v>723.6953031850221</v>
+        <v>557.3057129681426</v>
       </c>
       <c r="V4" t="n">
-        <v>723.6953031850221</v>
+        <v>557.3057129681426</v>
       </c>
       <c r="W4" t="n">
-        <v>723.6953031850221</v>
+        <v>557.3057129681426</v>
       </c>
       <c r="X4" t="n">
-        <v>534.2755181685372</v>
+        <v>512.4766422293626</v>
       </c>
       <c r="Y4" t="n">
-        <v>534.2755181685372</v>
+        <v>512.4766422293626</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>714.6122027118931</v>
+        <v>1044.16222826576</v>
       </c>
       <c r="C5" t="n">
-        <v>714.6122027118931</v>
+        <v>691.4047187165165</v>
       </c>
       <c r="D5" t="n">
-        <v>714.6122027118931</v>
+        <v>338.6472091672733</v>
       </c>
       <c r="E5" t="n">
-        <v>361.854693162645</v>
+        <v>338.6472091672733</v>
       </c>
       <c r="F5" t="n">
-        <v>354.9091924134416</v>
+        <v>331.7017084180699</v>
       </c>
       <c r="G5" t="n">
-        <v>342.2443073217436</v>
+        <v>27.93839475630006</v>
       </c>
       <c r="H5" t="n">
-        <v>27.93839475630044</v>
+        <v>27.93839475630006</v>
       </c>
       <c r="I5" t="n">
-        <v>27.93839475630044</v>
+        <v>27.93839475630006</v>
       </c>
       <c r="J5" t="n">
-        <v>80.9902034087462</v>
+        <v>80.99020340874438</v>
       </c>
       <c r="K5" t="n">
-        <v>211.2396305620535</v>
+        <v>211.2396305620495</v>
       </c>
       <c r="L5" t="n">
-        <v>409.7273242458669</v>
+        <v>409.72732424586</v>
       </c>
       <c r="M5" t="n">
-        <v>662.2525653973833</v>
+        <v>662.2525653973736</v>
       </c>
       <c r="N5" t="n">
-        <v>923.4777373365752</v>
+        <v>923.4777373365628</v>
       </c>
       <c r="O5" t="n">
-        <v>1156.809998477533</v>
+        <v>1156.809998477518</v>
       </c>
       <c r="P5" t="n">
-        <v>1321.452684169735</v>
+        <v>1321.452684169718</v>
       </c>
       <c r="Q5" t="n">
-        <v>1396.919737815022</v>
+        <v>1396.919737815003</v>
       </c>
       <c r="R5" t="n">
-        <v>1396.919737815022</v>
+        <v>1396.919737815003</v>
       </c>
       <c r="S5" t="n">
-        <v>1396.919737815022</v>
+        <v>1396.919737815003</v>
       </c>
       <c r="T5" t="n">
-        <v>1396.919737815022</v>
+        <v>1396.919737815003</v>
       </c>
       <c r="U5" t="n">
-        <v>1396.919737815022</v>
+        <v>1396.919737815003</v>
       </c>
       <c r="V5" t="n">
-        <v>1396.919737815022</v>
+        <v>1396.919737815003</v>
       </c>
       <c r="W5" t="n">
-        <v>1044.162228265774</v>
+        <v>1396.919737815003</v>
       </c>
       <c r="X5" t="n">
-        <v>1044.162228265774</v>
+        <v>1396.919737815003</v>
       </c>
       <c r="Y5" t="n">
-        <v>714.6122027118931</v>
+        <v>1044.16222826576</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>483.5129253779123</v>
+        <v>315.2975883578245</v>
       </c>
       <c r="C6" t="n">
-        <v>483.5129253779123</v>
+        <v>315.2975883578245</v>
       </c>
       <c r="D6" t="n">
-        <v>334.578515716661</v>
+        <v>166.3631786965732</v>
       </c>
       <c r="E6" t="n">
-        <v>175.3410607112055</v>
+        <v>27.93839475630006</v>
       </c>
       <c r="F6" t="n">
-        <v>28.80650273809047</v>
+        <v>27.93839475630006</v>
       </c>
       <c r="G6" t="n">
-        <v>28.80650273809047</v>
+        <v>27.93839475630006</v>
       </c>
       <c r="H6" t="n">
-        <v>27.93839475630044</v>
+        <v>27.93839475630006</v>
       </c>
       <c r="I6" t="n">
-        <v>27.93839475630044</v>
+        <v>27.93839475630006</v>
       </c>
       <c r="J6" t="n">
-        <v>165.5479665784355</v>
+        <v>165.5479665784343</v>
       </c>
       <c r="K6" t="n">
-        <v>265.5449014249418</v>
+        <v>265.5449014249391</v>
       </c>
       <c r="L6" t="n">
-        <v>446.3256618694541</v>
+        <v>446.3256618694495</v>
       </c>
       <c r="M6" t="n">
-        <v>676.6451506028659</v>
+        <v>676.645150602859</v>
       </c>
       <c r="N6" t="n">
-        <v>927.4691557817703</v>
+        <v>927.4691557817611</v>
       </c>
       <c r="O6" t="n">
-        <v>1134.704322874854</v>
+        <v>1134.704322874843</v>
       </c>
       <c r="P6" t="n">
-        <v>1281.695748398838</v>
+        <v>1281.695748398825</v>
       </c>
       <c r="Q6" t="n">
-        <v>1396.919737815022</v>
+        <v>1396.919737815003</v>
       </c>
       <c r="R6" t="n">
-        <v>1388.514189308343</v>
+        <v>1388.514189308323</v>
       </c>
       <c r="S6" t="n">
-        <v>1388.514189308343</v>
+        <v>1388.514189308323</v>
       </c>
       <c r="T6" t="n">
-        <v>1388.514189308343</v>
+        <v>1388.514189308323</v>
       </c>
       <c r="U6" t="n">
-        <v>1388.514189308343</v>
+        <v>1388.514189308323</v>
       </c>
       <c r="V6" t="n">
-        <v>1153.362081076601</v>
+        <v>1153.362081076581</v>
       </c>
       <c r="W6" t="n">
-        <v>899.124724348399</v>
+        <v>899.1247243483792</v>
       </c>
       <c r="X6" t="n">
-        <v>691.2732241428662</v>
+        <v>691.2732241428464</v>
       </c>
       <c r="Y6" t="n">
-        <v>483.5129253779123</v>
+        <v>483.5129253778925</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>444.4913979707636</v>
+        <v>493.881164594453</v>
       </c>
       <c r="C7" t="n">
-        <v>275.5552150428567</v>
+        <v>324.9449816665461</v>
       </c>
       <c r="D7" t="n">
-        <v>125.438575630521</v>
+        <v>174.8283422542104</v>
       </c>
       <c r="E7" t="n">
-        <v>125.438575630521</v>
+        <v>174.8283422542104</v>
       </c>
       <c r="F7" t="n">
-        <v>125.438575630521</v>
+        <v>27.93839475630006</v>
       </c>
       <c r="G7" t="n">
-        <v>125.438575630521</v>
+        <v>27.93839475630006</v>
       </c>
       <c r="H7" t="n">
-        <v>33.6827695280754</v>
+        <v>27.93839475630006</v>
       </c>
       <c r="I7" t="n">
-        <v>33.6827695280754</v>
+        <v>27.93839475630006</v>
       </c>
       <c r="J7" t="n">
-        <v>27.93839475630044</v>
+        <v>27.93839475630006</v>
       </c>
       <c r="K7" t="n">
-        <v>148.523310587469</v>
+        <v>148.5233105874678</v>
       </c>
       <c r="L7" t="n">
-        <v>358.356921520864</v>
+        <v>358.3569215208616</v>
       </c>
       <c r="M7" t="n">
-        <v>589.9861665014275</v>
+        <v>589.9861665014239</v>
       </c>
       <c r="N7" t="n">
-        <v>821.5424021750249</v>
+        <v>821.5424021750201</v>
       </c>
       <c r="O7" t="n">
-        <v>1019.405768767886</v>
+        <v>1019.40576876788</v>
       </c>
       <c r="P7" t="n">
-        <v>1165.191378612031</v>
+        <v>1165.191378612025</v>
       </c>
       <c r="Q7" t="n">
-        <v>1182.690698049272</v>
+        <v>1182.690698049265</v>
       </c>
       <c r="R7" t="n">
-        <v>1182.690698049272</v>
+        <v>1182.690698049265</v>
       </c>
       <c r="S7" t="n">
-        <v>1182.690698049272</v>
+        <v>1182.690698049265</v>
       </c>
       <c r="T7" t="n">
-        <v>1182.690698049272</v>
+        <v>1182.690698049265</v>
       </c>
       <c r="U7" t="n">
-        <v>1182.690698049272</v>
+        <v>1182.690698049265</v>
       </c>
       <c r="V7" t="n">
-        <v>1182.690698049272</v>
+        <v>1182.690698049265</v>
       </c>
       <c r="W7" t="n">
-        <v>893.2735280123111</v>
+        <v>942.6632946360005</v>
       </c>
       <c r="X7" t="n">
-        <v>665.2839771142937</v>
+        <v>714.6737437379832</v>
       </c>
       <c r="Y7" t="n">
-        <v>444.4913979707636</v>
+        <v>493.881164594453</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>141.2769458819316</v>
+        <v>797.0848490996759</v>
       </c>
       <c r="C8" t="n">
-        <v>141.2769458819316</v>
+        <v>428.1223321592641</v>
       </c>
       <c r="D8" t="n">
-        <v>141.2769458819316</v>
+        <v>69.85663355251364</v>
       </c>
       <c r="E8" t="n">
-        <v>141.2769458819316</v>
+        <v>69.85663355251364</v>
       </c>
       <c r="F8" t="n">
-        <v>134.3314451327281</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G8" t="n">
         <v>51.24678656800311</v>
@@ -4831,25 +4831,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2228.89447953245</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U8" t="n">
-        <v>1975.31341879663</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V8" t="n">
-        <v>1644.250531453059</v>
+        <v>2300.058434670803</v>
       </c>
       <c r="W8" t="n">
-        <v>1291.481876182945</v>
+        <v>1947.289779400689</v>
       </c>
       <c r="X8" t="n">
-        <v>918.0161179218651</v>
+        <v>1573.824021139609</v>
       </c>
       <c r="Y8" t="n">
-        <v>527.8767859460534</v>
+        <v>1183.684689163798</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G9" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182521</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057906</v>
       </c>
       <c r="I9" t="n">
         <v>51.24678656800311</v>
@@ -4886,19 +4886,19 @@
         <v>113.5972052500113</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310613</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L9" t="n">
-        <v>593.0223835625329</v>
+        <v>854.8429682049857</v>
       </c>
       <c r="M9" t="n">
-        <v>956.284402521753</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N9" t="n">
-        <v>1552.492103330613</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O9" t="n">
-        <v>1884.562538506775</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P9" t="n">
         <v>2447.023413292609</v>
@@ -4916,16 +4916,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>919.6966947956497</v>
+        <v>665.1026499885492</v>
       </c>
       <c r="C10" t="n">
-        <v>750.7605118677428</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="D10" t="n">
-        <v>600.6438724554071</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E10" t="n">
-        <v>452.7307788730139</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F10" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G10" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I10" t="n">
         <v>51.24678656800311</v>
@@ -4995,19 +4995,19 @@
         <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1550.127289667437</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V10" t="n">
-        <v>1550.127289667437</v>
+        <v>1584.950414897297</v>
       </c>
       <c r="W10" t="n">
-        <v>1550.127289667437</v>
+        <v>1295.533244860336</v>
       </c>
       <c r="X10" t="n">
-        <v>1322.137738769419</v>
+        <v>1067.543693962319</v>
       </c>
       <c r="Y10" t="n">
-        <v>1101.345159625889</v>
+        <v>846.7511148187889</v>
       </c>
     </row>
     <row r="11">
@@ -5020,19 +5020,19 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
@@ -5041,25 +5041,25 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5080,10 +5080,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>956.9553291057288</v>
+        <v>1016.580456911436</v>
       </c>
       <c r="C13" t="n">
-        <v>788.0191461778219</v>
+        <v>847.644273983529</v>
       </c>
       <c r="D13" t="n">
-        <v>637.9025067654861</v>
+        <v>697.5276345711933</v>
       </c>
       <c r="E13" t="n">
-        <v>489.989413183093</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851826</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000626</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000626</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5229,22 +5229,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2131.487582220363</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U13" t="n">
-        <v>2131.487582220363</v>
+        <v>2191.112710026071</v>
       </c>
       <c r="V13" t="n">
-        <v>1876.803094014477</v>
+        <v>1936.428221820184</v>
       </c>
       <c r="W13" t="n">
-        <v>1587.385923977516</v>
+        <v>1647.011051783223</v>
       </c>
       <c r="X13" t="n">
-        <v>1359.396373079499</v>
+        <v>1419.021500885206</v>
       </c>
       <c r="Y13" t="n">
-        <v>1138.603793935968</v>
+        <v>1198.228921741676</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004711</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168592</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362666</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
@@ -5314,16 +5314,16 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5363,13 +5363,13 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>580.8993044876688</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C16" t="n">
-        <v>549.6145409888043</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D16" t="n">
-        <v>549.6145409888043</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888043</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5463,25 +5463,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2376.42910567089</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>2156.827640693835</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1867.752414038033</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1613.067925832146</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1323.650755795185</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614387</v>
+        <v>1095.661204897168</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.5477693179085</v>
+        <v>874.8686257536381</v>
       </c>
     </row>
     <row r="17">
@@ -5497,7 +5497,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
@@ -5512,7 +5512,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111715</v>
@@ -5521,16 +5521,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5591,22 +5591,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908939</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908939</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5706,19 +5706,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5728,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111719</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5764,13 +5764,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5788,16 +5788,16 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5828,25 +5828,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1577.52840832642</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5889,22 +5889,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5974,28 +5974,28 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362674</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014778</v>
@@ -6004,7 +6004,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6065,25 +6065,25 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>980.1499206998682</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1577.52840832642</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1098.667160263526</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356194</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232836</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797186</v>
@@ -6183,16 +6183,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1688.385853854706</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1547.449290305074</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>1319.459739407056</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>1098.667160263526</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6202,46 +6202,46 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075801</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6253,25 +6253,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6299,25 +6299,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>870.3164745246296</v>
       </c>
       <c r="C28" t="n">
-        <v>484.8112968429802</v>
+        <v>701.3802915967227</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429802</v>
+        <v>551.263652184387</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429802</v>
+        <v>403.3505586019938</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>256.4606111040835</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1272.757518498399</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>1051.964939354869</v>
       </c>
     </row>
     <row r="29">
@@ -6460,22 +6460,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6539,31 +6539,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>763.7541388327643</v>
+        <v>789.7592298206043</v>
       </c>
       <c r="C31" t="n">
-        <v>594.8179559048574</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D31" t="n">
-        <v>444.7013164925216</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E31" t="n">
-        <v>444.7013164925216</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F31" t="n">
-        <v>297.8113689946113</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1938.286391947399</v>
+        <v>1964.291482935239</v>
       </c>
       <c r="V31" t="n">
-        <v>1683.601903741512</v>
+        <v>1709.606994729352</v>
       </c>
       <c r="W31" t="n">
-        <v>1394.184733704551</v>
+        <v>1420.189824692392</v>
       </c>
       <c r="X31" t="n">
-        <v>1166.195182806534</v>
+        <v>1192.200273794374</v>
       </c>
       <c r="Y31" t="n">
-        <v>945.402603663004</v>
+        <v>971.4076946508441</v>
       </c>
     </row>
     <row r="32">
@@ -6691,19 +6691,19 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6776,22 +6776,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>580.0655846733346</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>411.1294017454277</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6894,16 +6894,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1499.913349582082</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1210.496179545122</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>982.5066286471044</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>761.7140495035743</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6934,25 +6934,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7013,22 +7013,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F37" t="n">
         <v>402.7245934908939</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="38">
@@ -7165,31 +7165,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7250,22 +7250,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>810.0653816078141</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>641.1291986799072</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D40" t="n">
-        <v>491.0125592675714</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E40" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
         <v>175.9033664000583</v>
@@ -7368,16 +7368,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1440.495976479601</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1440.495976479601</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1212.506425581584</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>991.7138464380538</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7408,13 +7408,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7487,22 +7487,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263527</v>
+        <v>550.637687073287</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356195</v>
+        <v>550.637687073287</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232838</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7636,31 +7636,31 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7681,16 +7681,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615996</v>
@@ -7724,22 +7724,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265839</v>
+        <v>15.37922103265838</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8139,13 +8139,13 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>42.56275186471078</v>
+        <v>14.1043098940285</v>
       </c>
       <c r="L4" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
-        <v>171.4142040457084</v>
+        <v>82.97369176944341</v>
       </c>
       <c r="N4" t="n">
         <v>163.8604018711117</v>
@@ -8154,7 +8154,7 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709386</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>41.92993463898944</v>
+        <v>41.92993463899049</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8315,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>67.55889958092179</v>
+        <v>67.55889958091697</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,7 +8534,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8543,13 +8543,13 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>211.0329012241564</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>265.0304328515151</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,10 +23469,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>152.4862366927566</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>280.2941372823625</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23512,7 +23512,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>2.103206497849897e-12</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23652,16 +23652,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>136.2749052347519</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23670,7 +23670,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23703,7 +23703,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>111.1976478713681</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23889,25 +23889,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>41.54258064659095</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24129,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>117.6820817884491</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24363,19 +24363,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24423,10 +24423,10 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="W25" t="n">
-        <v>146.9958004224549</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24603,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>144.8013425629423</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24663,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24846,19 +24846,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>103.8640922513198</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>273.1465727897277</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25077,10 +25077,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25092,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25134,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>65.54986409393064</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25317,13 +25317,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>57.2291039219422</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>250.2980548978887</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25551,13 +25551,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25566,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25608,10 +25608,10 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>6.726664722474283</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25785,19 +25785,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>36.41624546988359</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>840134.087947515</v>
+        <v>840134.0879475152</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>840134.0879475147</v>
+        <v>840134.0879475152</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>840134.0879475151</v>
+        <v>840134.087947515</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>840134.0879475152</v>
+        <v>840134.087947515</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>840134.0879475151</v>
+        <v>840134.087947515</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>840134.087947515</v>
+        <v>840134.0879475151</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>840134.0879475152</v>
+        <v>840134.0879475151</v>
       </c>
     </row>
     <row r="16">
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>595255.2831516052</v>
+      </c>
+      <c r="C2" t="n">
         <v>595255.2831516053</v>
       </c>
-      <c r="C2" t="n">
-        <v>595255.2831516055</v>
-      </c>
       <c r="D2" t="n">
-        <v>595255.2831516049</v>
+        <v>595255.2831516052</v>
       </c>
       <c r="E2" t="n">
-        <v>585181.2847752544</v>
+        <v>585181.2847752545</v>
       </c>
       <c r="F2" t="n">
-        <v>585181.2847752543</v>
+        <v>585181.2847752548</v>
       </c>
       <c r="G2" t="n">
         <v>585181.2847752544</v>
@@ -26334,28 +26334,28 @@
         <v>585181.2847752544</v>
       </c>
       <c r="I2" t="n">
+        <v>585181.2847752544</v>
+      </c>
+      <c r="J2" t="n">
+        <v>585181.2847752541</v>
+      </c>
+      <c r="K2" t="n">
+        <v>585181.2847752545</v>
+      </c>
+      <c r="L2" t="n">
+        <v>585181.2847752545</v>
+      </c>
+      <c r="M2" t="n">
         <v>585181.2847752542</v>
-      </c>
-      <c r="J2" t="n">
-        <v>585181.2847752543</v>
-      </c>
-      <c r="K2" t="n">
-        <v>585181.2847752543</v>
-      </c>
-      <c r="L2" t="n">
-        <v>585181.2847752544</v>
-      </c>
-      <c r="M2" t="n">
-        <v>585181.2847752544</v>
       </c>
       <c r="N2" t="n">
         <v>585181.2847752544</v>
       </c>
       <c r="O2" t="n">
-        <v>585181.2847752542</v>
+        <v>585181.2847752544</v>
       </c>
       <c r="P2" t="n">
-        <v>585181.2847752547</v>
+        <v>585181.2847752544</v>
       </c>
     </row>
     <row r="3">
@@ -26368,13 +26368,13 @@
         <v>591356.9025208454</v>
       </c>
       <c r="C3" t="n">
-        <v>178997.5061427116</v>
+        <v>178997.5061427061</v>
       </c>
       <c r="D3" t="n">
-        <v>301519.8707731208</v>
+        <v>301519.8707731259</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245458</v>
+        <v>507485.4416245459</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,19 +26383,19 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.356633406937666e-11</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854459</v>
+        <v>49064.94472854468</v>
       </c>
       <c r="K3" t="n">
-        <v>41617.52445267281</v>
+        <v>41617.52445267143</v>
       </c>
       <c r="L3" t="n">
-        <v>73739.30240019543</v>
+        <v>73739.30240019668</v>
       </c>
       <c r="M3" t="n">
         <v>132607.2937289267</v>
@@ -26420,28 +26420,28 @@
         <v>277470.8484307132</v>
       </c>
       <c r="C4" t="n">
-        <v>229588.1389806968</v>
+        <v>229588.1389806982</v>
       </c>
       <c r="D4" t="n">
         <v>145155.2306979382</v>
       </c>
       <c r="E4" t="n">
-        <v>13606.80811184265</v>
+        <v>13606.8081118428</v>
       </c>
       <c r="F4" t="n">
-        <v>13606.80811184265</v>
+        <v>13606.8081118428</v>
       </c>
       <c r="G4" t="n">
+        <v>13606.80811184279</v>
+      </c>
+      <c r="H4" t="n">
         <v>13606.80811184274</v>
       </c>
-      <c r="H4" t="n">
-        <v>13606.8081118427</v>
-      </c>
       <c r="I4" t="n">
-        <v>13606.80811184281</v>
+        <v>13606.80811184279</v>
       </c>
       <c r="J4" t="n">
-        <v>13606.80811184278</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="K4" t="n">
         <v>13606.80811184275</v>
@@ -26450,7 +26450,7 @@
         <v>13606.80811184274</v>
       </c>
       <c r="M4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="N4" t="n">
         <v>13606.80811184274</v>
@@ -26459,7 +26459,7 @@
         <v>13606.80811184274</v>
       </c>
       <c r="P4" t="n">
-        <v>13606.80811184279</v>
+        <v>13606.80811184274</v>
       </c>
     </row>
     <row r="5">
@@ -26472,7 +26472,7 @@
         <v>56985.80041161358</v>
       </c>
       <c r="C5" t="n">
-        <v>69851.97930029177</v>
+        <v>69851.97930029138</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-330558.2682115669</v>
+        <v>-330558.268211567</v>
       </c>
       <c r="C6" t="n">
-        <v>116817.6587279053</v>
+        <v>116817.6587279096</v>
       </c>
       <c r="D6" t="n">
-        <v>55642.40924070121</v>
+        <v>55642.40924069632</v>
       </c>
       <c r="E6" t="n">
-        <v>-37380.87403939811</v>
+        <v>-37068.23271047696</v>
       </c>
       <c r="F6" t="n">
-        <v>470104.5675851476</v>
+        <v>470417.2089140691</v>
       </c>
       <c r="G6" t="n">
-        <v>470104.5675851476</v>
+        <v>470417.2089140688</v>
       </c>
       <c r="H6" t="n">
-        <v>470104.5675851476</v>
+        <v>470417.2089140689</v>
       </c>
       <c r="I6" t="n">
-        <v>470104.5675851473</v>
+        <v>470417.2089140688</v>
       </c>
       <c r="J6" t="n">
-        <v>421039.6228566029</v>
+        <v>421352.2641855238</v>
       </c>
       <c r="K6" t="n">
-        <v>428487.0431324747</v>
+        <v>428799.6844613976</v>
       </c>
       <c r="L6" t="n">
-        <v>396365.2651849522</v>
+        <v>396677.9065138723</v>
       </c>
       <c r="M6" t="n">
-        <v>337497.2738562209</v>
+        <v>337809.915185142</v>
       </c>
       <c r="N6" t="n">
-        <v>470104.5675851476</v>
+        <v>470417.2089140689</v>
       </c>
       <c r="O6" t="n">
-        <v>470104.5675851474</v>
+        <v>470417.2089140689</v>
       </c>
       <c r="P6" t="n">
-        <v>470104.5675851477</v>
+        <v>470417.2089140689</v>
       </c>
     </row>
   </sheetData>
@@ -26694,22 +26694,22 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.419150020582837e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.419150020582837e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3.419150020582837e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>3.419150020582837e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>3.809213481041486e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>2.945791758672082e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26727,7 +26727,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129046</v>
+        <v>548.4699409129047</v>
       </c>
       <c r="C3" t="n">
-        <v>687.6696919955702</v>
+        <v>687.669691995566</v>
       </c>
       <c r="D3" t="n">
         <v>934.0648921175391</v>
@@ -26792,7 +26792,7 @@
         <v>187.52558716632</v>
       </c>
       <c r="C4" t="n">
-        <v>349.2299344537555</v>
+        <v>349.2299344537507</v>
       </c>
       <c r="D4" t="n">
         <v>640.5848321000389</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.419150020582837e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26925,7 +26925,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>2.945791758672082e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26959,13 +26959,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129046</v>
+        <v>548.4699409129047</v>
       </c>
       <c r="C3" t="n">
-        <v>139.1997510826657</v>
+        <v>139.1997510826614</v>
       </c>
       <c r="D3" t="n">
-        <v>246.3952001219689</v>
+        <v>246.3952001219731</v>
       </c>
       <c r="E3" t="n">
         <v>433.9106082241346</v>
@@ -27014,10 +27014,10 @@
         <v>187.52558716632</v>
       </c>
       <c r="C4" t="n">
-        <v>161.7043472874356</v>
+        <v>161.7043472874308</v>
       </c>
       <c r="D4" t="n">
-        <v>291.3548976462833</v>
+        <v>291.3548976462881</v>
       </c>
       <c r="E4" t="n">
         <v>532.1234559996095</v>
@@ -27035,13 +27035,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="K4" t="n">
-        <v>161.704347287436</v>
+        <v>161.7043472874306</v>
       </c>
       <c r="L4" t="n">
-        <v>291.3548976462831</v>
+        <v>291.354897646288</v>
       </c>
       <c r="M4" t="n">
         <v>532.1234559996095</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.419150020582837e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27162,7 +27162,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>2.945791758672082e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27260,10 +27260,10 @@
         <v>187.52558716632</v>
       </c>
       <c r="K4" t="n">
-        <v>161.7043472874356</v>
+        <v>161.7043472874308</v>
       </c>
       <c r="L4" t="n">
-        <v>291.3548976462833</v>
+        <v>291.3548976462881</v>
       </c>
       <c r="M4" t="n">
         <v>532.1234559996095</v>
@@ -27387,10 +27387,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>194.4047829059418</v>
+        <v>248.097011011618</v>
       </c>
       <c r="F2" t="n">
-        <v>219.3504585753915</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27444,10 +27444,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>182.2055135121491</v>
       </c>
       <c r="Y2" t="n">
-        <v>245.5285338536984</v>
+        <v>198.7123514897336</v>
       </c>
     </row>
     <row r="3">
@@ -27460,16 +27460,16 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>136.1637893657753</v>
@@ -27511,7 +27511,7 @@
         <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920013</v>
+        <v>195.4095977920012</v>
       </c>
       <c r="U3" t="n">
         <v>225.8637684100909</v>
@@ -27523,10 +27523,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>18.24739803715752</v>
+        <v>121.6274544088564</v>
       </c>
       <c r="Y3" t="n">
-        <v>31.61189272389547</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27548,10 +27548,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H4" t="n">
         <v>153.4336708318196</v>
@@ -27560,7 +27560,7 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>23.43375830553084</v>
+        <v>23.43375830553082</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,13 +27584,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>110.022476759081</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S4" t="n">
         <v>206.7802557954962</v>
       </c>
       <c r="T4" t="n">
-        <v>223.7196734901001</v>
+        <v>36.19408632378014</v>
       </c>
       <c r="U4" t="n">
         <v>286.2650814934503</v>
@@ -27602,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>38.1840682227172</v>
+        <v>181.3288753576449</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27618,25 +27618,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>16.04295731725682</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>5.453107166932227</v>
       </c>
       <c r="E5" t="n">
-        <v>32.70043561850628</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>111.8125557156289</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>311.1628534397889</v>
       </c>
       <c r="I5" t="n">
-        <v>103.8974541908713</v>
+        <v>103.897454190872</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,10 +27666,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>146.0239967969024</v>
+        <v>146.0239967969028</v>
       </c>
       <c r="T5" t="n">
-        <v>210.9942452356465</v>
+        <v>210.9942452356466</v>
       </c>
       <c r="U5" t="n">
         <v>251.1244928058882</v>
@@ -27678,13 +27678,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0.01103426365750693</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>59.98341335771153</v>
+        <v>37.00800420230286</v>
       </c>
     </row>
     <row r="6">
@@ -27694,7 +27694,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -27703,19 +27703,19 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>20.60454435453056</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>135.8643785804277</v>
       </c>
       <c r="H6" t="n">
-        <v>97.09065260080503</v>
+        <v>97.95007950277724</v>
       </c>
       <c r="I6" t="n">
-        <v>38.47015094419595</v>
+        <v>38.47015094419626</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27745,10 +27745,10 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>144.2088206736375</v>
+        <v>144.2088206736376</v>
       </c>
       <c r="T6" t="n">
-        <v>194.2027622142185</v>
+        <v>194.2027622142186</v>
       </c>
       <c r="U6" t="n">
         <v>225.8440703321075</v>
@@ -27785,19 +27785,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.7509192581389</v>
       </c>
       <c r="H7" t="n">
-        <v>60.36366284681077</v>
+        <v>151.201910888232</v>
       </c>
       <c r="I7" t="n">
-        <v>118.1584857285477</v>
+        <v>118.1584857285479</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>5.686931024057756</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,10 +27821,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>121.535779957332</v>
+        <v>121.5357799573323</v>
       </c>
       <c r="S7" t="n">
-        <v>202.4057324704885</v>
+        <v>202.4057324704887</v>
       </c>
       <c r="T7" t="n">
         <v>222.6471508178238</v>
@@ -27836,7 +27836,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>48.89586895745944</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27855,10 +27855,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27867,7 +27867,7 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>329.2938907938762</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
@@ -27903,16 +27903,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>68.09417367807634</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28028,10 +28028,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28067,13 +28067,13 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>200.771512018211</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>201.1568951983999</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28089,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-6.063252071556433e-14</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>-6.063252071556433e-14</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-6.063252071556433e-14</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>-6.063252071556433e-14</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>-6.063252071556433e-14</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>-6.063252071556433e-14</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>-6.063252071556433e-14</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>-6.063252071556433e-14</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>-6.063252071556433e-14</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>-6.063252071556433e-14</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>-6.063252071556433e-14</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>-6.063252071556433e-14</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>-6.063252071556433e-14</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>-6.063252071556433e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28256,7 +28256,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>3.993567224040754e-12</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -28268,7 +28268,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>-4.266508374351875e-12</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -28326,25 +28326,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-6.063252071556433e-14</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>-6.063252071556433e-14</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-6.063252071556433e-14</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>-6.063252071556433e-14</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>-6.063252071556433e-14</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>-6.063252071556433e-14</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>-6.063252071556433e-14</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28377,22 +28377,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>-6.063252071556433e-14</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>-6.063252071556433e-14</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>-6.063252071556433e-14</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>-6.063252071556433e-14</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>-6.063252071556433e-14</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>-1.407649475909081e-12</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -28538,7 +28538,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>3.993567224040754e-12</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -28575,10 +28575,10 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>-6.063252071556433e-14</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>9.566747394273988e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28620,7 +28620,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>-6.063252071556433e-14</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -28860,7 +28860,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>-8.722622624190989e-13</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -29055,7 +29055,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>1.06581410364015e-12</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29331,7 +29331,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>8.242295734817162e-13</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -30711,7 +30711,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -31044,13 +31044,13 @@
         <v>2.204904285077002</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954485</v>
+        <v>22.58097600954486</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043118</v>
+        <v>85.00457245043121</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655543</v>
+        <v>187.1384950655544</v>
       </c>
       <c r="K2" t="n">
         <v>280.4720934528639</v>
@@ -31062,25 +31062,25 @@
         <v>387.1618995470274</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470024</v>
+        <v>393.4265838470025</v>
       </c>
       <c r="O2" t="n">
         <v>371.501566862268</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244294</v>
+        <v>317.0679923244295</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151092</v>
+        <v>238.1048576151093</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974683</v>
+        <v>138.5038187974684</v>
       </c>
       <c r="S2" t="n">
         <v>50.24425639619223</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924579</v>
+        <v>9.651968507924582</v>
       </c>
       <c r="U2" t="n">
         <v>0.1763923428061601</v>
@@ -31126,7 +31126,7 @@
         <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>40.6178210959085</v>
+        <v>40.61782109590851</v>
       </c>
       <c r="J3" t="n">
         <v>111.4584056340083</v>
@@ -31135,16 +31135,16 @@
         <v>190.5001680621737</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405032</v>
+        <v>256.1509851405033</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975329</v>
+        <v>298.916117797533</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829654</v>
+        <v>306.8275379829655</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292673</v>
+        <v>280.6872536292674</v>
       </c>
       <c r="P3" t="n">
         <v>225.2762668628872</v>
@@ -31153,16 +31153,16 @@
         <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550075</v>
+        <v>73.24660833550077</v>
       </c>
       <c r="S3" t="n">
-        <v>21.9129264128882</v>
+        <v>21.91292641288821</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820369</v>
+        <v>4.75513090282037</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390163</v>
+        <v>0.07761367088390164</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445819</v>
+        <v>0.9890441557445822</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620016</v>
+        <v>8.793501675620018</v>
       </c>
       <c r="I4" t="n">
         <v>29.74325515639162</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114193</v>
+        <v>69.92542181114196</v>
       </c>
       <c r="K4" t="n">
         <v>114.9089482765069</v>
@@ -31229,19 +31229,19 @@
         <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784858</v>
+        <v>82.81896107784861</v>
       </c>
       <c r="R4" t="n">
-        <v>44.4710217664791</v>
+        <v>44.47102176647911</v>
       </c>
       <c r="S4" t="n">
         <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181394</v>
+        <v>4.225915938181395</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061362</v>
+        <v>0.05394786304061363</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.764501274354049</v>
+        <v>2.764501274354032</v>
       </c>
       <c r="H5" t="n">
-        <v>28.31194867597841</v>
+        <v>28.31194867597824</v>
       </c>
       <c r="I5" t="n">
-        <v>106.5784353795346</v>
+        <v>106.5784353795339</v>
       </c>
       <c r="J5" t="n">
-        <v>234.6335900342072</v>
+        <v>234.6335900342058</v>
       </c>
       <c r="K5" t="n">
-        <v>351.6549289776141</v>
+        <v>351.654928977612</v>
       </c>
       <c r="L5" t="n">
-        <v>436.259034852627</v>
+        <v>436.2590348526243</v>
       </c>
       <c r="M5" t="n">
-        <v>485.4222343904208</v>
+        <v>485.4222343904178</v>
       </c>
       <c r="N5" t="n">
-        <v>493.2768736361793</v>
+        <v>493.2768736361763</v>
       </c>
       <c r="O5" t="n">
-        <v>465.7873640893212</v>
+        <v>465.7873640893183</v>
       </c>
       <c r="P5" t="n">
-        <v>397.5387388787055</v>
+        <v>397.5387388787031</v>
       </c>
       <c r="Q5" t="n">
-        <v>298.535036990901</v>
+        <v>298.5350369908992</v>
       </c>
       <c r="R5" t="n">
-        <v>173.6556031751427</v>
+        <v>173.6556031751416</v>
       </c>
       <c r="S5" t="n">
-        <v>62.99607278934296</v>
+        <v>62.99607278934257</v>
       </c>
       <c r="T5" t="n">
-        <v>12.10160432848486</v>
+        <v>12.10160432848478</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2211601019483239</v>
+        <v>0.2211601019483225</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.479138582782925</v>
+        <v>1.479138582782916</v>
       </c>
       <c r="H6" t="n">
-        <v>14.2853647337193</v>
+        <v>14.28536473371921</v>
       </c>
       <c r="I6" t="n">
-        <v>50.92648190721913</v>
+        <v>50.92648190721881</v>
       </c>
       <c r="J6" t="n">
-        <v>139.746158823364</v>
+        <v>139.7461588233631</v>
       </c>
       <c r="K6" t="n">
-        <v>238.8484438698199</v>
+        <v>238.8484438698185</v>
       </c>
       <c r="L6" t="n">
-        <v>321.1612085117048</v>
+        <v>321.1612085117029</v>
       </c>
       <c r="M6" t="n">
-        <v>374.7799821375858</v>
+        <v>374.7799821375834</v>
       </c>
       <c r="N6" t="n">
-        <v>384.6992930721257</v>
+        <v>384.6992930721233</v>
       </c>
       <c r="O6" t="n">
-        <v>351.9246960536198</v>
+        <v>351.9246960536177</v>
       </c>
       <c r="P6" t="n">
-        <v>282.4505948122938</v>
+        <v>282.450594812292</v>
       </c>
       <c r="Q6" t="n">
-        <v>188.8107426022555</v>
+        <v>188.8107426022543</v>
       </c>
       <c r="R6" t="n">
-        <v>91.83634113103111</v>
+        <v>91.83634113103054</v>
       </c>
       <c r="S6" t="n">
-        <v>27.47435043020036</v>
+        <v>27.47435043020019</v>
       </c>
       <c r="T6" t="n">
-        <v>5.961966480603103</v>
+        <v>5.961966480603066</v>
       </c>
       <c r="U6" t="n">
-        <v>0.09731174886729772</v>
+        <v>0.09731174886729713</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.240060100319881</v>
+        <v>1.240060100319873</v>
       </c>
       <c r="H7" t="n">
-        <v>11.02526161920767</v>
+        <v>11.02526161920761</v>
       </c>
       <c r="I7" t="n">
-        <v>37.2919891987106</v>
+        <v>37.29198919871038</v>
       </c>
       <c r="J7" t="n">
-        <v>87.67224909261556</v>
+        <v>87.67224909261502</v>
       </c>
       <c r="K7" t="n">
-        <v>144.0724371098916</v>
+        <v>144.0724371098907</v>
       </c>
       <c r="L7" t="n">
-        <v>184.3631170966485</v>
+        <v>184.3631170966473</v>
       </c>
       <c r="M7" t="n">
-        <v>194.3850573619609</v>
+        <v>194.3850573619597</v>
       </c>
       <c r="N7" t="n">
-        <v>189.7630151698597</v>
+        <v>189.7630151698585</v>
       </c>
       <c r="O7" t="n">
-        <v>175.2768585433955</v>
+        <v>175.2768585433945</v>
       </c>
       <c r="P7" t="n">
-        <v>149.9796324968699</v>
+        <v>149.979632496869</v>
       </c>
       <c r="Q7" t="n">
-        <v>103.8381234913311</v>
+        <v>103.8381234913305</v>
       </c>
       <c r="R7" t="n">
-        <v>55.75761141983753</v>
+        <v>55.75761141983719</v>
       </c>
       <c r="S7" t="n">
-        <v>21.61086556648373</v>
+        <v>21.6108655664836</v>
       </c>
       <c r="T7" t="n">
-        <v>5.29843861045767</v>
+        <v>5.298438610457638</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06763964183562993</v>
+        <v>0.06763964183562952</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -32083,7 +32083,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>339.3493584601592</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32092,7 +32092,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32259,7 +32259,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
         <v>125.31755462929</v>
@@ -32311,7 +32311,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32326,10 +32326,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32548,7 +32548,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32560,16 +32560,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>652.0478969157701</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32785,7 +32785,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32794,19 +32794,19 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>545.3845241768652</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -33022,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33034,13 +33034,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>446.0127311990643</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33259,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33271,7 +33271,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>245.8118639189582</v>
+        <v>281.0363767960755</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
@@ -33286,7 +33286,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33417,7 +33417,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33429,7 +33429,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N32" t="n">
         <v>981.2715114159425</v>
@@ -33496,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33514,7 +33514,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33681,7 +33681,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33733,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33751,7 +33751,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33970,7 +33970,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33988,7 +33988,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34207,7 +34207,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34225,7 +34225,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34444,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34462,7 +34462,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868052</v>
+        <v>6.09259053886808</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788333</v>
+        <v>60.38224240788338</v>
       </c>
       <c r="L2" t="n">
-        <v>112.184017997302</v>
+        <v>112.1840179973021</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197546</v>
+        <v>156.8156663197547</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504115</v>
+        <v>164.0135202504116</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405812</v>
+        <v>141.4033554405813</v>
       </c>
       <c r="P2" t="n">
-        <v>85.8349965691599</v>
+        <v>85.83499656915996</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065975</v>
+        <v>15.79916774065978</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781469</v>
+        <v>52.65872908781472</v>
       </c>
       <c r="L3" t="n">
-        <v>117.596605360629</v>
+        <v>117.5966053606291</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755146</v>
+        <v>156.7820838755147</v>
       </c>
       <c r="N3" t="n">
         <v>175.4858258996321</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848229</v>
+        <v>138.091009184823</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855694</v>
+        <v>91.301859448557</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764996</v>
+        <v>10.60944440764999</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,13 +34859,13 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>28.45844197068227</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>174.6339172880152</v>
       </c>
       <c r="M4" t="n">
-        <v>187.52558716632</v>
+        <v>99.08507489005495</v>
       </c>
       <c r="N4" t="n">
         <v>187.52558716632</v>
@@ -34874,7 +34874,7 @@
         <v>164.382023673283</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>116.8989542469473</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>53.58768550752092</v>
+        <v>53.58768550751947</v>
       </c>
       <c r="K5" t="n">
-        <v>131.5650779326336</v>
+        <v>131.5650779326315</v>
       </c>
       <c r="L5" t="n">
-        <v>200.4926198826398</v>
+        <v>200.4926198826371</v>
       </c>
       <c r="M5" t="n">
-        <v>255.076001163148</v>
+        <v>255.0760011631451</v>
       </c>
       <c r="N5" t="n">
-        <v>263.8638100395884</v>
+        <v>263.8638100395854</v>
       </c>
       <c r="O5" t="n">
-        <v>235.6891526676344</v>
+        <v>235.6891526676316</v>
       </c>
       <c r="P5" t="n">
-        <v>166.3057431234359</v>
+        <v>166.3057431234336</v>
       </c>
       <c r="Q5" t="n">
-        <v>76.22934711645152</v>
+        <v>76.2293471164497</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>138.9995674971061</v>
+        <v>138.9995674971053</v>
       </c>
       <c r="K6" t="n">
-        <v>101.0070048954609</v>
+        <v>101.0070048954595</v>
       </c>
       <c r="L6" t="n">
-        <v>182.6068287318306</v>
+        <v>182.6068287318287</v>
       </c>
       <c r="M6" t="n">
-        <v>232.6459482155674</v>
+        <v>232.6459482155651</v>
       </c>
       <c r="N6" t="n">
-        <v>253.3575809887924</v>
+        <v>253.35758098879</v>
       </c>
       <c r="O6" t="n">
-        <v>209.3284516091754</v>
+        <v>209.3284516091732</v>
       </c>
       <c r="P6" t="n">
-        <v>148.4761873979635</v>
+        <v>148.4761873979618</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.3878680971557</v>
+        <v>116.3878680971497</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,25 +35096,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>121.8029452840087</v>
+        <v>121.8029452840078</v>
       </c>
       <c r="L7" t="n">
-        <v>211.9531423569646</v>
+        <v>211.9531423569635</v>
       </c>
       <c r="M7" t="n">
-        <v>233.9689343238015</v>
+        <v>233.9689343238003</v>
       </c>
       <c r="N7" t="n">
-        <v>233.8951875490883</v>
+        <v>233.8951875490871</v>
       </c>
       <c r="O7" t="n">
-        <v>199.8619864574352</v>
+        <v>199.8619864574342</v>
       </c>
       <c r="P7" t="n">
-        <v>147.2581917617634</v>
+        <v>147.2581917617624</v>
       </c>
       <c r="Q7" t="n">
-        <v>17.67608023963672</v>
+        <v>17.67608023963608</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35254,7 +35254,7 @@
         <v>62.98022089091739</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
         <v>297.6803606378501</v>
@@ -35263,13 +35263,13 @@
         <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
-        <v>602.2300008170303</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
         <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>568.1422977634694</v>
+        <v>514.7099619750473</v>
       </c>
       <c r="Q9" t="n">
         <v>116.4807223308545</v>
@@ -35731,7 +35731,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>200.7949786802851</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35740,7 +35740,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35907,7 +35907,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35974,10 +35974,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36208,16 +36208,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>509.9138629937518</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,19 +36442,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>406.830144396991</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36682,13 +36682,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>303.8786972770459</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36919,7 +36919,7 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>103.6778299969399</v>
+        <v>138.9023428740572</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
@@ -36934,7 +36934,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37065,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37077,7 +37077,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37162,7 +37162,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37399,7 +37399,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37636,7 +37636,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37873,7 +37873,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38110,7 +38110,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
